--- a/deuChatbot/research_result/table_to_json(2000_400).xlsx
+++ b/deuChatbot/research_result/table_to_json(2000_400).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F301"/>
+  <dimension ref="A1:F401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20677,6 +20677,6774 @@
         </is>
       </c>
     </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있습니다. 모집단위, 실기종목, 준비물, 실기주제, 화지크기 및 시험시간에 대한 정보가 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다. 각 종목에 대한 설명이 원본과 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 실기시험에 대한 정보를 직접적으로 다루고 있습니다. 모든 내용이 주제와 관련이 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다. 표현이 자연스럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 정보의 흐름이 자연스럽고 일관성 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.8058808575735821</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 분야에서 기초디자인과 사고의 전환 두 가지 종목을 준비해야 합니다.
+1. **기초디자인**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지3절 크기를 사용합니다.
+   - **시간**: 5시간 동안 진행됩니다.
+2. **사고의 전환**:
+   - **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+   - **실기주제**: 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨을 통해 결정합니다. 예시로는 '콜라병과 계절'과 같은 주제가 될 수 있습니다.
+   - **화지크기**: 켄트지2절 크기를 사용합니다.
+   - **시간**: 5시간 동안 진행됩니다.
+이러한 실기시험은 디자인적 사고력과 표현력을 평가하기 위해 기초적인 디자인 작업을 수행하게 됩니다. 준비물과 주제를 잘 이해하고, 시간 내에 효율적으로 작업해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기 종목, 준비물, 실기 주제, 화지 크기, 시간에 대한 정보를 대부분 정확하게 반영하고 있습니다. 그러나 "각 종목별 배점 비율은 70%입니다."라는 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 반영하고 있지만, 배점 비율에 대한 언급이 추가되어 있어 일관성이 떨어집니다. 원본 텍스트에는 배점 비율에 대한 정보가 없으므로, 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있으며, 실기 종목, 준비물, 주제, 화지 크기, 시간에 대한 내용을 직접적으로 언급하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 그러나 배점 비율에 대한 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 배점 비율에 대한 정보가 원본에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성 등 여러 차원에서 잘 수행하고 있습니다. 그러나 배점 비율의 추가로 인해 약간의 저하가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 배점 비율에 대한 언급이 원본에 없으므로 의미적으로 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 배점 비율에 대한 언급이 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.8252273237434966</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기 종목은 '기초디자인'과 '사고의 전환' 중에서 선택해야 합니다. 각 종목별 배점 비율은 70%입니다.
+준비물로는 볼펜, 연필, 색연필, 수채물감 등이 필요합니다. 실기 주제는 주제 A와 주제 B에서 각각 하나씩을 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 '잠자리와 저울'과 같은 주제가 될 수 있습니다.
+화지 크기는 켄트지 3절이며, 시간은 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 인정대회 목록이 완전하게 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 대회 목록과 설명이 원본과 동일하게 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 인정대회에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 예를 들어, "각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)" 부분에서 괄호 사용이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 세부 사항을 정확하게 반영하고 있으며, 사실에 대한 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.865211727994431</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과에서 배드민턴(남)과 축구(남)의 경우, 다음과 같은 대회가 인정대회로 지정되어 있습니다.
+배드민턴(남):
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회 (주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+-춘계한국고등학교축구연맹전
+-추계한국고등학교축구연맹전
+-대한축구협회장배전국고등학교축구대회
+-문화체육관광부장관기전국고등학교축구대회
+-백운기전국고등학교축구대회
+-전국고등축구리그(권역별고교축구리그)
+-전국고등축구리그왕중왕전
+-무학기전국고등학교축구대회
+-청룡기전국고등학교축구대회
+-백록기전국고등학교축구대회
+-금강대기전국고등학교축구대회
+-대통령금배전국고등학교축구대회
+-금석배전국고등학생축구대회
+-부산MBC전국고등학생축구대회
+-K리그 U18 챔피언십
+-K리그 U18 챔피언십왕중왕전
+이러한 대회의 성적을 기반으로 학생들의 경기실적이 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다. 주제A와 주제B의 항목들이 모두 포함되어 있으며, 시험 당일의 절차에 대한 설명도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다. 모든 내용이 원본과 일치하여 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊습니다. 기초디자인 실기시험의 주제와 절차에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 어색한 표현이 있을 수 있습니다. 그러나 전반적인 문장 구조와 문법은 양호합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.7383500007151458</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B 각각에서 1개씩을 선택하여 연결된 주제를 작성해야 합니다. 예시로 주제들 중 일부를 나열하면 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이들 중에서 각 1개씩을 추첨하여 연결된 주제를 작성해야 합니다. 제공된 사물과 이미지 이외의 형상은 표현하지 않아야 하며, 제공된 사물의 색상은 변경하지 않는 것이 요구됩니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 원문과 상반된 내용을 담고 있습니다. 나군 학생부종합 전형에서는 출결 상황이 반영된다고 주장하고 있으나, 이는 원문과 모순됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일관성이 전혀 없습니다. 원문에서는 출결 점수가 반영되지 않는다고 명확히 언급하고 있지만, 생성된 응답은 반대로 출결 점수가 반영된다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 출결 점수에 대한 정보를 제공하고 있으나, 원문과 관련된 질문에 대한 직접적인 답변이 아니므로 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 반대되는 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 신뢰성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5935983206241719</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>동의대학교 학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 나군 학생부종합(조기취업형계약학과전형)에서는 출결 상황이 반영됩니다. 그러나 이는 다른 전형에서도 중요한 요소로 작용할 수 있으므로, 출석을 최대한 유지하는 것이 좋습니다.
+출결 점수의 반영 방법은 다음과 같습니다:
+- 결석일수 0~2일: 120점
+- 결석일수 3~6일: 90점
+- 결석일수 7~12일: 60점
+- 결석일수 13~20일: 30점
+- 결석일수 21일 이상: 0점
+이 정보는 현재 제공된 자료에 따르며, 실제 점수 반영 방법은 변경될 수 있으므로 공식 웹사이트를 확인하시거나 추가적인 문의를 주시기 바랍니다. https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 모집 인원 수와 전형에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.9888277735705019</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트에서는 28명의 신입생을 선발한다고 명시하고 있지만, 생성된 응답은 해당 정보를 부정하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트의 정보와 일치하지 않으며, 서로 모순되는 정보를 제공합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 제공하지 않기 때문에 낮은 점수를 받습니다. 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 정보의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 매우 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 정보의 정확성 문제로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5187617463810756</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 인문사회과학대학의 영어영문학과에 대한 모집인원이 없습니다. 다른 학부와 계열의 모집인원만 기재되어 있습니다. 더 자세한 정보를 얻기 위해서는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보에 대한 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절하게 표현되어 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보 전달이 효과적입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.7773394548845104</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 나군 일반 학생 전형의 정원 내 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 등급과 점수에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일관된 내용을 제공합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 수능 영어 등급에 따른 점수에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "등급"과 "점수" 사이에 불필요한 공백이 있어 약간의 어색함이 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 약간의 어색함이 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.946349476853006</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점
+이 정보를 참고하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 있다고 주장하고 있으나, 이는 원문에서 명확히 부정된 내용입니다. 원문에 따르면 예술고 학생은 지원할 수 없으며, 이는 사실과 완전히 상반됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 예술고 학생의 지원 불가능성을 명시하고 있는데, 생성된 응답은 이를 반박하는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 예술고 학생의 지원 가능성에 대한 잘못된 정보를 제공하고 있지만, 지원 절차에 대한 설명은 원문과 관련이 있습니다. 그러나 주제의 핵심인 지원 불가능성에 대한 잘못된 해석으로 인해 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 지원 절차에 대한 설명이 잘 구성되어 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 주제와 관련된 정보가 포함되어 있지만, 잘못된 전제에서 출발하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 반대되는 정보를 포함하고 있습니다. 예술고 학생이 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.6478339923394877</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생도 나군의 농어촌학생전형에 지원 가능합니다. 그러나 지원 가능한 단과대학 및 모집단위가 제한적일 수 있습니다. 예를 들어, "예술디자인체육대학"에서 "패션디자인학과  - 교직"는 지원이 가능하지만, 다른 학과에서는 지원이 불가능할 수도 있습니다.
+따라서, 예술고 학생이 나군 농어촌학생전형으로 지원하려면 다음과 같은 절차를 따르세요:
+1. **지원 가능한 단과대학 및 모집단위 확인**: 제공된 정보에서 지원 가능한 단과대학 및 모집단위를 확인하세요.
+2. **정원외 지원자격 확인**: 농어촌학생전형의 정원외 지원 자격을 확인하세요. 예술고 학생도 해당 조건에 부합해야 합니다.
+3. **제출서류 준비**: 필요한 서류를 준비하세요. 제출서류는 지원 자격과 관련된 증빙자료와 학교생활기록부 등이 포함될 수 있습니다.
+추가적으로, 정확한 지원 가능 여부와 지원 방법에 대한 자세한 정보는 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에서 제시된 기록(268~271cm)은 원본 텍스트의 기록(218~221cm)과 다르며, 이는 명백한 사실 오류입니다. 배점은 일치하지만, 기록의 부정확성으로 인해 전체적인 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 기록이 서로 다르기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 요청된 정보(기록과 배점)에 대해 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 기록의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 기록에 대한 정보가 잘못되어 있어 정확성 점수가 낮습니다. 배점은 정확하지만, 기록의 오류로 인해 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질이 혼합되어 있습니다. 관련성은 높지만, 사실성과 정확성에서 큰 문제가 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하며, 요청된 정보에 대한 맥락을 잘 유지하고 있습니다. 그러나 기록의 오류로 인해 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 기록의 오류로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.9226632656540783</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급의 기록은 268~271cm이며, 배점은 275점입니다.
+이 정보는 "레저스포츠학과 기록별 배점표"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경기지도학과의 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있습니다. 그러나 추가된 정보인 학생부교과와 서류 비율에 대한 내용은 원본 텍스트에 포함되어 있지 않으므로, 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 출결 반영 비율에 대한 정보를 제공하지만, 추가된 비율 정보가 원본 텍스트와 일치하지 않거나 관련성이 떨어질 수 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다. 추가된 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 중국어와 한국어가 혼합되어 있어 약간의 흐름이 깨질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 출결 비율에 대한 정보가 명확하게 전달됩니다. 그러나 두 언어가 혼합되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 출결 반영 비율에 대한 정보는 정확하지만, 추가된 비율 정보는 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 두 언어의 혼합 사용이 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 두 언어가 혼합되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5241859044139631</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>东义大学的体育指导学部出勤率反映比例是12%。 
+이 정보는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 섹션에서 얻을 수 있습니다. 경기지도학과의 경우 학생부교과가 18%, 출결이 12%, 서류(경기실적)가 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과명, 학년도 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 완벽하게 반영하고 있으며, 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.9452619784692259</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가 정보도 관련성이 높습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 실기고사 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 흐름이 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5183551818928686</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 있습니다.
+추가 정보로, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 "수능 최저기준이 명시되어 있지 않다"는 사실을 언급하고 있지만, "다른 전공들처럼 응용화학과에서도 수능 위주로 합격자를 선발하는 것으로 보인다"는 부분은 사실과 다를 수 있습니다. 응용화학과의 수능 최저기준이 없다는 점을 명확히 하지 않고, 추측을 포함하고 있어 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 최저기준이 없다는 점을 언급하고 있지만, "수능 위주로 합격자를 선발하는 것으로 보인다"는 부분은 모순적입니다. 수능 최저기준이 없다는 사실과 수능 위주 선발이 상충할 수 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 핵심인 수능 최저기준에 대한 정보를 직접적으로 다루고 있으며, 관련된 추가 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답은 수능 최저기준이 없다는 점을 정확히 반영하고 있지만, "수능 위주로 합격자를 선발하는 것으로 보인다"는 부분은 사실과 다를 수 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 보이지만, 사실성과 일관성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.4815923948210314</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024학년도 응용화학과에 대한 정보가 제공된 문서 내에서는 수능 최저기준이 명시되어 있지 않습니다. 다른 전공들처럼 응용화학과에서도 수능 위주로 합격자를 선발하는 것으로 보입니다만, 정확한 수능 최저기준은 해당 대학의 공식 웹사이트를 참조하시거나, 입학처에 직접 문의하시는 것이 가장 확실합니다. 
+추가 정보를 얻으시려면 [https://ipsi.ipsi.ipsi](https://ipsi.ipsi.ipsi)로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보가 잘못되었습니다. "아동학과"와 "금융경영학과"는 원본 텍스트에 언급되지 않았으며, 원본 텍스트에 나열된 학과들과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 대한 답변을 시도하고 있지만, 제공된 정보가 정확하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성 부족으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 제공된 정보가 부정확하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.4488304911107262</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2024학년도에 동의대학교에서 신설된 학과로는 "아동학과"와 "금융경영학과"가 있습니다. 
+아동학과는 기존 보육·가정상담학과를 분리하여 새롭게 설립되었습니다. 또한 경제금융보험학과는 금융경영학과로 명칭을 변경하였습니다.
+이러한 변화들은 학과별 전문성을 높이고, 학생들이 더 특화된 교육을 받을 수 있도록 하는데 목적이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 서류와 면접의 반영 비율을 잘못 제시하고 있습니다. 원본 텍스트에서는 서류가 70%, 면접이 30%라고 명시되어 있지만, 생성된 응답에서는 서류가 60%, 면접이 40%로 잘못 기재되어 있습니다. 이로 인해 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 반영 비율에 대한 정보가 서로 상충합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 학생부종합 전형의 전형요소 반영비율에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 어느 정도 유지하고 있습니다. 그러나 전반적인 품질은 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공함으로써 의미적으로 적절하지 않습니다. 그러나 질문에 대한 응답으로서의 맥락은 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.8391960512639458</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 (학생부): 60%
+- 면접: 40%
+이 정보는 제공된 데이터에서 직접 확인할 수 있습니다. 만약 추가로 궁금한 사항이 있으시다면 질문해주세요.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교에서 수능 가산점을 적용하는 학과에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학에서 가산점을 적용한다고 명시하고 있지만, 생성된 응답에서는 '상경대학'의 호텔·컨벤션경영학과를 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 원본 텍스트의 내용과 생성된 응답의 내용이 서로 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 원본 텍스트의 주요 내용과는 다르게 특정 학과에 대한 잘못된 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 여러 품질 차원에서 낮은 점수를 받습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 원본 텍스트와 관련이 있지만, 잘못된 정보를 제공하여 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.6841413590660534</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 수능 가산점을 적용하는 학과는 어디인지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서 수능 가산점을 적용하는 학과는 '상경대학'의 호텔·컨벤션경영학과입니다. 이 학과는 수학(미적분 또는 기하) 응시자를 대상으로 수학 표준점수에 0.1을 곱한 값을 추가 점수로 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 성적을 100% 반영한다고 명시된 원문과는 다르게, 여러 가지 세부 항목을 나열하고 있으며, 이는 원문에서 제공된 정보와 일치하지 않습니다. 원문은 단순히 수능 성적을 100% 반영한다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일치하지 않는 여러 세부 사항을 포함하고 있어 일관성이 부족합니다. 원문에서 언급된 내용과는 다른 방식으로 수능 성적을 반영한다고 설명하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 수능 성적 반영 방법에 대한 정보를 제공하고 있지만, 원문에서 요구하는 간단한 정보와는 거리가 있습니다. 원문은 단순한 사실을 전달하는 반면, 생성된 응답은 과도한 세부 사항을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 항목으로 나뉘어 있지만, 각 항목 간의 연결이 명확하지 않아 일관된 흐름이 부족합니다. 정보가 나열되어 있지만, 전체적으로 통합된 메시지가 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 정보와 다르게 수능 성적 반영 방법에 대한 구체적인 내용을 추가하고 있어 정확성이 떨어집니다. 원문은 단순히 100% 반영한다고만 언급하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 원문과의 일치성, 정확성, 일관성에서 부족함이 많아 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문의 간단한 사실을 복잡하게 설명하고 있어 의미적으로 적절하지 않을 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 정보가 많지만, 복잡한 구조로 인해 이해하기 어려울 수 있습니다. 간단한 원문의 메시지를 전달하는 데 비해 과도한 세부 사항이 포함되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.6744147915530885</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적을 다음과 같이 반영합니다.
+1. **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+   - 이는 국어, 수학, 탐구 영역에서의 성적을 종합적으로 평가하는 지표입니다.
+   - 각 영역별로 표준 변환 점수가 제공되며, 이를 합산하여 총점을 계산합니다.
+2. **영어 등급**:
+   - 영어 과목의 등급이 반영됩니다. 이는 수능에서 영어 과목을 통해 평가되는 성적입니다.
+   - 각 모집단위별로 영어 등급의 평균과 표준 편차가 제공되며, 이를 통해 지원자의 영어 실력이 어느 정도인지 파악할 수 있습니다.
+3. **수능 4개 영역 등급**:
+   - 이는 국어, 수학, 외국어(영어), 탐구의 각 영역별로 평가되는 등급입니다.
+   - 각 모집단위별로 수능 4개 영역 등급의 평균과 표준 편차가 제공되며, 이를 통해 지원자의 전반적인 학업 성적을 파악할 수 있습니다.
+4. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**:
+   - 이는 위의 3개 항목을 종합하여 계산된 총점을 의미합니다.
+   - 각 모집단위별로 평균과 표준 편차가 제공되며, 이를 통해 지원자의 수능 성적을 종합적으로 평가할 수 있습니다.
+이러한 방법으로 동의대학교는 지원자의 수능 성적을 종합적으로 평가하여 합격자를 선발합니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다. 날짜와 학교 이름이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 표현으로 되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.8751020969763906</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트에서 언급된 학과(한의예과, 디자인조형학과, 체육학과, 경기지도학과)가 아닌 레저스포츠학과와 태권도학과에 대해 언급하고 있으며, 이 두 학과가 제외된다고 잘못된 정보를 제공합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에서는 특정 학과가 제외된다고 명시하고 있지만, 생성된 응답에서는 다른 학과가 제외된다고 주장하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 잘못된 정보를 포함하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 다르게 다른 학과에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 논리적 흐름이 깨져 있습니다. 따라서 일관성은 있지만, 원본과의 연결이 약해 전체적인 일관성 점수는 중간입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에서 벗어난 내용을 포함하고 있어 의미적으로 적절하지 않습니다. 그러나 일부 관련된 주제를 다루고 있어 점수를 부여했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성은 높지만, 내용의 정확성 문제로 인해 점수를 조정했습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6231741699937688</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서 레저스포츠학과와 태권도학과는 실기/실적 위주로 모집됩니다. 따라서, 이 두 학과는 전형요소 반영비율에서 수능 비율이 30%이고 실기 비율이 70%입니다.
+따라서, 나군 수능(일반학생전형)에서는 레저스포츠학과와 태권도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적인 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 없다는 점을 반복적으로 강조하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저기준에 대한 정보를 직접적으로 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 문장 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.7614695673888253</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. 모든 전형 유형에서 수능 최저기준이 없음을 확인할 수 있습니다.
+참조로, "전형요소 반영비율" 항목을 보면 각 전형별로 수능 최저기준이 '수능최저기준 없음'으로 표시되어 있습니다. 이는 해당 전형에서 수능 점수가 필수적으로 요구되는 것이 아니라는 의미입니다.
+더 자세한 정보나 변경사항이 있으실 경우, https://ipsi.deu.ac.kr/main.do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 "보육·가정상담학과"가 "아동학과"로 변경되었다고 정확하게 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에는 다른 학과들도 나열되어 있지만, 생성된 응답은 그 중 하나만 언급하고 있어 다소 불완전합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일관되게 반영하고 있습니다. "보육·가정상담학과"의 변경 사항을 언급하며, 학부에서 학과로의 분리라는 점도 일치합니다. 그러나 다른 학과에 대한 언급이 없어서 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 학과의 분리에 직접적으로 관련되어 있으며, 해당 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 "보육·가정상담학과"의 변경 사항을 정확하게 반영하고 있지만, 원본 텍스트에 있는 다른 학과들에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5288923143807279</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었습니다. 또한, 이 학과는 구분명에서도 학부에서 학과로 분리된 것으로 나타나 있습니다.
+따라서 2024학년도 동의대학교에서는 "보육·가정상담학과"가 "아동학과"로 명칭이 변경되었고, 이는 학부에서 학과로 분리된 사례입니다.</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원서접수 마감일과 시간을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 사실이 정확하게 전달되었습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 마감일과 시간에 대한 정보가 일치합니다. 추가 정보도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 관련된 추가 정보를 제공하여 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.7144666648348618</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 원서접수 마감일은 2024년 1월 6일(토)까지입니다. 접수 마감 시간은 오후 18시까지이며, 원서접수는 인터넷을 통해 가능합니다. 자세한 정보는 입학안내 홈페이지 또는 http://www.uwayapply.com를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도에 전형 요소 변화가 없다고 주장하지만, 원본 텍스트에서는 여러 전형의 구체적인 변화가 명시되어 있습니다. 따라서 사실과 완전히 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트는 전형 요소의 변화를 설명하고 있지만, 생성된 응답은 변화가 없다고 주장합니다. 이는 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 전형 요소 변화에 대한 정확한 정보를 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 전형 요소 변화가 없다고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 표현을 사용하고 있지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.642834740885973</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>2024학년도에 전형 요소 변화가 있는 전형은 없습니다. 모든 전형에서 수능 위주로 평가하고 있으며, 학생부 교과, 출결, 서류, 면접, 실기 등의 요소를 반영하지 않습니다.
+만약 추가 정보나 특정 전형의 세부 사항을 알고 싶다면, 제공된 데이터를 참고하거나 "https://ipsi.deu.ac.kr/main.do" 웹사이트에서 확인해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중이 70%라는 사실을 잘못 해석하고 있습니다. 응답에서는 레저스포츠학과와 태권도학과를 제외한 모든 모집단위에서 실기가 반영되지 않는다고 주장하고 있지만, 이는 사실과 다릅니다. 실기 비중이 70%라는 정보는 정확하지만, 그 외의 내용은 부정확합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 실기 비중이 70%라고 명확히 언급하고 있지만, 생성된 응답은 특정 학과를 제외한 모든 모집단위에서 실기가 반영되지 않는다고 주장하여 모순을 일으킵니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 불필요한 정보가 포함되어 있습니다. 실기 비중에 대한 정보는 포함되어 있으나, 다른 학과에 대한 언급은 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해 보입니다. 실기 비중에 대한 설명이 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 실기 비중이 70%라는 사실은 정확하지만, 그 외의 내용은 부정확합니다. 특히, 특정 학과에서만 실기가 반영된다는 주장은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성과 일관성에서 큰 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 내용이 부적절하게 해석되어 있습니다. 특히, 실기 비중에 대한 설명이 혼란을 초래할 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 일부 문장이 복잡하여 명확하게 이해하기 어려울 수 있습니다. 특히, 실기 비중에 대한 설명이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.6500466129978729</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 레저스포츠학과와 태권도학과를 제외한 전 모집단위에서 반영되지 않습니다. 즉, 수능만을 기준으로 평가합니다.
+레저스포츠학과와 태권도학과의 경우에는 실기가 70%의 비중을 차지하며, 수능은 30%의 비중을 차지합니다.
+따라서 일반적으로는 실기 비중이 없습니다만, 특정 학과에서는 실기가 큰 비중을 차지하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 라이프융합학부의 세부 전공을 정확하게 나열하고 있으며, 전공의 수와 이름이 일치합니다. 그러나 "미래융합대학"이라는 명칭은 원문에 없으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "미래융합대학"이라는 새로운 정보가 추가되어 일관성이 떨어집니다. 원문에서는 단과대학에 대한 언급이 없으므로 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 라이프융합학부의 전공에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공에 대한 설명이 자연스럽게 이어집니다. 그러나 "미래융합대학"에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공의 이름과 수는 정확하지만, "미래융합대학"이라는 정보는 원문에 없으므로 정확성에서 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞지만, "미래융합대학"이라는 추가 정보가 의미의 적절성을 약간 저해합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 표현이 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.7415803612694429</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 단과대학 중 하나인 미래융합대학의 라이프융합학부는 세 가지 전공을 포함하고 있습니다. 
+- 스타트업창업투자학
+- 뷰티비즈니스학 
+- 라이프생활문화학
+이 세 가지 전공은 학생들이 다양한 삶의 경험과 문화를 이해하며, 실용적인 기술을 배울 수 있도록 설계되었습니다.</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과를 잘못 언급하고 있으며, 실제로는 체육학과와 레저스포츠학과가 포함되어야 합니다. 경기지도학과는 언급되지 않았고, 제시된 종목도 원본 텍스트와 관련이 없습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트에 명시된 학과와 종목이 전혀 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 언급된 학과와 종목이 원본 텍스트와 관련이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계가 명확하지 않아 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용을 정확히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 실기고사와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 맞지 않기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6943490835558939</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>2024학년도 가군에서 실기고사를 치르게 되는 학과는 경기지도학과입니다. 이 학과에서는 다음과 같은 종목을 모집하고 있습니다:
+1. 배드민턴 (남성)
+2. 축구 (남성)
+이러한 종목들에 참여하려면 실기고사를 치르셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도 실기/실적 위주 전형 지원 가능한 학과 목록을 잘못 제시하고 있습니다. 원본 텍스트에 명시된 학과(레저스포츠학과, 태권도학과, 디자인조형학과, 체육학과, 경기지도학과)와는 전혀 다른 학과(산업경영빅데이터공학과, 소프트웨어공학부, 전기공학과, 전자공학과)를 나열하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 전혀 없습니다. 원본에서 언급된 학과와 생성된 응답의 학과가 서로 다르기 때문에, 정보의 일관성이 결여되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교의 실기/실적 위주 전형에 대한 질문에 대한 답변을 제공하고 있지만, 제시된 학과가 원본 텍스트와 관련이 없기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로는 일관성을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보를 제공하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편이지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.6395225059087069</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 '경기실적우수자전형'은 다음과 같은 학과에서 지원이 가능합니다:
+1. **산업경영빅데이터공학과**
+2. **소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)**
+3. **전기공학과**
+4. **전자공학과**
+이러한 학과들은 실기/실적 위주 전형에서 지원 가능합니다. 하지만 다른 학과에서도 특정 전형에 따라 실기/실적을 반영하는 경우가 있으므로, 각 학과의 정확한 전형 요소와 지원 자격을 확인하시기 바랍니다.
+더 궁금하신 점이 있다면 https://ipsi. deu. ac. kr/main. do를 참조하거나 추가로 문의해주세요.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보(2024학년도에 신설되었다는 내용)도 원본의 사실과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 전공 목록을 포함하여 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.7826248375124774</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 라이프융합학부는 신설되었으며, 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+이 정보는 2024학년도 동의대학교 학과 분리 및 신설 내용에서 확인되었습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 예술고와 체육고에 대한 언급은 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부분 일치하지만, 예술고와 체육고에 대한 추가 정보는 원문에 포함되어 있지 않아 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 다루고 있는 주제와 관련이 깊습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있어 완벽하지는 않습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 예술고와 체육고에 대한 언급이 원문과의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 예술고와 체육고에 대한 정보는 원문에 명시되어 있지 않아 정확성 점수가 약간 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 잘 맞춰져 있지만, 추가된 정보가 원문과의 일관성을 떨어뜨리므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 그러나 일부 정보가 추가되어 혼란을 줄 수 있어 완벽하지는 않습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.7528406146810506</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생이더라도 동의대학교 일반학생전형에서는 지원 가능합니다. 
+특히, 특수목적고등학교에 속하는 과학고, 국제고, 외국어고는 동일하게 지원할 수 있습니다. 하지만 예술고와 체육고는 지원이 불가능하므로 주의해야 합니다.
+자세한 내용은 동의대학교 입시 홈페이지를 참조하시거나 직접 문의해보시는 것이 좋습니다. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 나군 전형에서 가장 많이 모집하는 학과에 대한 잘못된 정보를 제공합니다. 원문에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과라고 명시되어 있지만, 생성된 응답에서는 경기지도학과가 가장 많이 모집한다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서 언급된 학과와 모집 인원에 대한 정보가 전혀 일치하지 않으며, 이는 일관성이 결여된 것입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대 나군 전형에 대한 질문에 답하고 있지만, 제공된 정보가 원문과 관련이 없고 잘못된 내용을 포함하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 관련성이 떨어져 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 완전히 다릅니다. 경기지도학과에 대한 정보는 사실이 아니며, 모집 인원에 대한 정보도 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 잘못된 정보로 인해 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.6015860862793642</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 경기지도학과입니다. 이 학과에서는 배드민턴(남)으로 3명, 축구(남)로 4명을 모집하고 있습니다. 다른 학과들은 각각 모집인원이 적으므로, 경기지도학과가 가장 많이 모집하는 학과입니다.</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 잘못 전달하고 있습니다. 응답에서는 지원 가능하다고 언급하고 있어, 원문과 상충됩니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서는 지원할 수 없다고 명시하고 있지만, 응답에서는 지원할 수 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 응답은 동의대의 지원 가능성에 대한 질문에 대한 답변을 제공하려고 하지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 응답은 원문에서 제공된 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.4882956086985966</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>你是特殊高中学生，根据提供的信息，东国大学农林地区学生选拔类型支持你申请。具体来说：
+- 特殊目的高中：支持申请（"특수목적고": "지원 가능"）
+因此你可以尝试申请东国大学的学生部教科农林地区学生选拔类型。但请注意详细阅读每个专业的具体要求和提交的文件，因为有些专业可能有特定的要求。
+更多详情可以访问 https://ipsi. deu. ac. kr/main. do 进行确认。</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보를 제공한다고 주장하지만, 원본 텍스트에서는 그러한 정보가 포함되어 있지 않다고 명시하고 있습니다. 따라서 생성된 응답은 사실과 일치하지 않으며, 여러 가지 부정확한 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 평균 성적에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 구체적인 성적 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본 텍스트는 평균 성적에 대한 정보가 없음을 알리고 있으며, 생성된 응답은 그와 반대되는 내용을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관계에서 비논리적인 점이 있습니다. 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 부정확성으로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6191428366006028</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자 평균 성적은 다음과 같습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 영어 등급의 평균: 3.30
+- 수능 4개 영역 등급의 평균: 4.12
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 450.71
+이러한 정보를 바탕으로 소프트웨어공학부의 합격자들의 평균 성적을 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있으며, 평균 성적에 대한 정보가 없다는 점을 잘 전달하고 있습니다. 그러나 "최초 합격자"라는 표현이 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "최초 합격자"라는 표현이 원본에 없기 때문에 약간의 일관성 문제를 보입니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 질문에 대한 적절한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, "최초 합격자"라는 표현이 원본에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, "최초 합격자"라는 표현이 원본에 없기 때문에 약간의 의미적 부적합성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.763145508667835</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 최초 합격자의 평균 성적에 대한 데이터가 없습니다. 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (http://ipsi. deu. ac. kr) 또는 관련 공고를 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 포함하고 있지만, 최초 합격자 등록 날짜와 충원 합격자 등록 날짜에 대한 정보가 추가되어 있어 원본 텍스트와 다소 차이가 있습니다. 원본 텍스트에는 이러한 세부사항이 포함되어 있지 않으므로, 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 추가된 내용으로 인해 일관성이 떨어집니다. 특히 최초 합격자 등록과 관련된 정보는 원본 텍스트에 없으므로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하고 있으며, 주제와 관련이 있습니다. 그러나 추가된 세부사항이 원본 텍스트와의 관련성을 약간 떨어뜨립니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되었습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 잘 구성되어 있으며, 논리적인 흐름이 있습니다. 그러나 추가된 정보로 인해 약간의 혼란이 발생할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히 등록 관련 정보는 원본에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보입니다. 그러나 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 주제와 관련된 내용을 잘 전달하고 있습니다. 그러나 추가된 정보가 원본의 의미와 다소 어긋나므로 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8393979499447428</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+1. 최초 합격자 발표 및 등록:
+   - 날짜: 2024년 2월 2일(금) 14:00
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+2. 최초 합격자 등록:
+   - 날짜: 2024년 2월 7일(수) ~ 2월 13일(화)
+   - 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+3. 충원 합격자 발표 및 등록:
+   - 1차 충원 합격자 발표:
+     * 날짜: 2024년 2월 14일(수) 09:00
+     * 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 1차 충원 합격자 등록:
+     * 날짜: 2024년 2월 14일(수) 09:00 ~ 16:00
+     * 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 2차 충원 합격자 발표:
+     * 날짜: 2024년 2월 15일(목) 09:00
+     * 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 2차 충원 합격자 등록:
+     * 날짜: 2024년 2월 15일(목) 09:00 ~ 16:00
+     * 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 3차 충원 합격자 발표:
+     * 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     * 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+   - 3차 충원 합격자 등록:
+     * 날짜: 개별 전화 통보 시 안내
+     * 내용: 홈페이지에서 개별 조회, 고지서 교부, 등록장소는 학교 지정은행입니다.
+이상과 같이 합격자 발표 일정을 알려드렸습니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 면접고사 일정에 대한 구체적인 날짜가 언급되어 있지 않다고 주장하지만, 원본 텍스트에는 명확하게 "2024. 01. 20.(토)"라는 날짜가 포함되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본 텍스트는 명확한 날짜를 제공하는 반면, 생성된 응답은 그 날짜가 언급되지 않았다고 잘못 진술하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 면접고사 일정에 대한 질문에 대한 답변으로는 관련성이 낮습니다. 원본 텍스트의 핵심 정보를 무시하고 일반적인 조언을 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 중요한 정보를 누락하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 잘못 이해하고 있으며, 적절하지 않은 정보를 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있지만, 내용의 정확성과 관련성이 떨어져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.3769064812219103</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 면접고사의 일정에 대한 구체적인 날짜가 언급되어 있지 않습니다. 면접고사를 위한 정확한 일정은 나중에 공지될 것입니다. 일반적으로 면접일정은 서류심사 후 결정되며, 해당 정보는 입학처 웹사이트나 학교에서의 공지를 통해 알 수 있습니다.
+추천되는 행동은 다음과 같습니다:
+1. **입학처 웹사이트를 확인하세요**: 나중에 발표될 일정을 확인할 수 있습니다.
+2. **학교에서의 공지사항을 주시하세요**: 일반적으로 학교에서는 입학전형 관련 모든 정보를 공지사항이나 학교 홈페이지를 통해 알립니다.
+만약 추가적인 정보가 필요하다면, "https://ipsi.ipsi.ipsi.ipsi" 웹사이트를 방문하여 최신 정보를 확인해 보세요.</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 언급하고 있지만, "일반적으로 고등학교 졸업 자격이 필요하다"는 정보는 사실과 다릅니다. 따라서 일부 사실이 정확하지 않아서 점수를 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 원본 텍스트와 일부분 일치하지만, 고등학교 졸업 자격이 필요하다는 추가 정보는 원본과 모순됩니다. 이로 인해 일관성이 떨어져 점수를 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 한의예과의 최저학력 기준에 대한 정보를 제공하고 있습니다. 따라서 점수를 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 약간의 비약이 있어 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 정보 중 일부는 정확하지 않으며, 특히 고등학교 졸업 자격에 대한 언급이 사실과 다릅니다. 따라서 점수를 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답의 질이 평균적이며, 사실성과 일관성에서 문제가 있어 점수를 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보가 부정확하여 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 일부 정보가 혼란을 줄 수 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5929754035548968</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 한의예과의 최저학력 기준에 대한 내용이 없습니다. 한의예과의 경우 일반적으로 고등학교 졸업 자격이 필요하지만, 정확한 최저학력 기준은 해당 대학의 입시 홈페이지를 참조하시거나 "https://ipsi. deu. ac. kr/main. do" 링크로 접속하여 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)"와 같은 구체적인 예시가 추가되어 있어, 다소 복잡하게 느껴질 수 있습니다. 전반적으로 사실에 부합하지만, 약간의 추가 정보가 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 수능 최저학력 기준이 없음을 강조하고 있습니다. 그러나 특정 전형에 한정된 경우에 대한 언급이 있어, 원문에서의 단순한 진술과는 약간의 차이가 있습니다. 그럼에도 불구하고 전반적으로 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제기된 질문에 대해 매우 관련성이 높습니다. 수능 최저학력 기준에 대한 정보를 명확하게 제공하고 있으며, 추가적인 예시와 링크를 통해 더 많은 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어져서 읽는 데 약간의 어려움이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 예시와 추가 정보가 포함되어 있어 약간의 복잡함이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 동의대학교의 수능 최저학력 기준에 대한 정확한 정보를 제공하고 있습니다. 그러나 특정 전형에 대한 언급이 추가되어 있어, 원문과의 일치성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성 등 여러 차원에서 좋은 점수를 받고 있습니다. 그러나 약간의 복잡함이 있어 완벽한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 일치하고 있으며, 추가적인 정보도 적절하게 제공하고 있습니다. 그러나 일부 내용이 원문과의 간결함에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 추가된 정보와 예시로 인해 약간의 혼란을 줄 수 있습니다. 따라서 명확성에서 약간의 점수를 잃었습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5528281112366551</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024학년도 정시에서는 "수능 위주" 전형의 경우 수능 최저학력 기준이 없습니다. 예를 들어, "가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외)"와 같은 경우에는 수능 최저학력 기준이 없음을 확인할 수 있습니다.
+따라서 정시에서 수능최저학력기준이 있는 경우는 특정 전형에 한정되며, 일반적으로는 없는 것으로 알려져 있습니다. 자세한 내용은 공식 홈페이지를 참조하시거나 "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정인 2024년 2월 15일(목) 09:00을 정확하게 언급하고 있으며, 2차 충원 합격자 등록이 진행된다는 내용도 포함되어 있습니다. 그러나 1차 및 3차 이후 발표 일정에 대한 언급이 없어서 일부 정보가 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정과 관련된 정보를 제공하지만, 원본 텍스트의 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 충원합격자 발표 일정과 관련된 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트의 모든 정보를 포함하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 2차 충원합격자 발표 일정에 대한 정확한 정보를 제공하지만, 1차 및 3차 발표 일정에 대한 정보가 누락되어 있어 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 충원합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있어 전반적으로 잘 이해할 수 있습니다. 다만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.7767408119189548</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목) 09:00부터 충원합격자 발표가 이루어집니다. 이와 함께 2차 충원 합격자 등록도 진행됩니다. 자세한 일정은 입학안내 홈페이지에서 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 발표 일정에 대한 정보를 포함하고 있지만, "충원 합격자 1차 (인터넷) 등록"과 "충원 합격자 2차 (인터넷) 등록"에 대한 추가 정보를 제공하고 있습니다. 그러나 원본 텍스트에는 이러한 등록 정보가 포함되어 있지 않으므로, 일부 사실이 추가되었지만 원본과의 일치성은 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, 등록 시간에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 발표 일정에 대한 정보를 직접적으로 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 발표 일정과 일치하는 부분이 있지만, 추가된 등록 정보는 원본에 포함되어 있지 않으므로 정확성에서 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성과 유창성에서 좋은 점수를 받습니다. 그러나 사실성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다. 그러나 추가된 정보가 원본과의 일치를 방해할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 다만, 추가된 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.8022239770816382</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 추가합격자 발표 일정은 다음과 같습니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+- 충원 합격자 3차 이후 (개별 전화 통보) 발표 및 등록: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+따라서 추가합격자 발표는 주로 2월 중순부터 시작됩니다.</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 추가 모집에 대한 명확한 언급이 없다고 주장하지만, 원본 텍스트에서는 추가 모집에 대한 정보가 명확히 제공되고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 추가 모집에 대한 정보가 없다고 잘못 해석하고 있습니다. 이로 인해 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 해석으로 인해 관련성이 떨어집니다. 추가 모집에 대한 정보가 없다는 주장은 원본 텍스트의 핵심 내용을 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트의 내용을 잘못 해석하여 일관성이 떨어집니다. 따라서 응답의 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘못 전달하고 있으며, 추가 모집에 대한 정보가 없다고 잘못 주장하고 있습니다. 이로 인해 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 원본 텍스트와의 불일치로 인해 전반적으로 낮은 품질을 보입니다. 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미를 잘못 해석하고 있지만, 여전히 관련된 주제를 다루고 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.4969341241307036</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보를 바탕으로 보면, 추가 모집에 대한 명확한 언급은 없습니다. 각 전형별로 정원 내외의 지원 자격과 모집 인원이 제시되어 있지만, 추가 모집에 대한 내용은 포함되어 있지 않습니다.
+만약 추가 모집을 원한다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 최신 정보를 확인하는 것이 좋습니다. 웹사이트에서는 변경된 모집 정원이나 새로운 전형 등에 대한 정보를 얻을 수 있습니다.
+추가로, 제공된 정보는 나군 학생부교과와 학생부종합 전형의 지원 자격과 모집 인원 등을 포함하고 있으며, 이들 전형은 정원 내외로 구분되어 있습니다. 따라서 추가 모집 여부에 대한 확인을 위해서는 해당 웹사이트를 참조하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 포함하고 있으며, 서류 및 면접 평가 비율도 정확하게 반영하고 있습니다. 그러나 "평생학습자, 성인학습자, 재직자"라는 표현은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, "평생학습자, 성인학습자, 재직자"라는 추가적인 정보는 원본 텍스트에 없는 내용으로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 평생학습자전형에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "면접 평 가 비율"에서 공백이 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 일부 추가 정보가 원본과 일치하지 않아 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성 등에서 좋은 점수를 받았습니다. 그러나 일부 일관성과 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본과 일치하지 않아 약간의 의미적 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.6771587209694534</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 학생부종합전형의 일환으로, 평생학습자, 성인학습자, 재직자를 대상으로 합니다. 이 전형에서는 서류평가와 면접평가가 이루어지며, 각 전형요소에 대한 반영비율은 다음과 같습니다:
+- **학생부종합(평생학습자전형)**: 
+  - 서류 평가 비율: 70%
+  - 면접 평 가 비율: 30%
+이러한 비율을 기반으로 서류와 면접에서의 성적을 종합적으로 평가합니다. 서류평가에서는 학생부종합전형의 평가영역인 공동체역량, 학업역량, 전공적합성을 평가하며, 각 영역에 대한 세부평가 기준과 배점이 있습니다.
+또한, 면접평가에서도 학업역량과 전공적합성에 중점을 둡니다. 이는 지원자의 학업 역량과 전공 적합성을 더 깊게 파악하기 위함입니다.
+제출서류의 경우, 고교 졸업(예정)자, 검정고시 출신자, 외국고교 졸업(예정)자 등에 따라 다르게 요구됩니다. 따라서 지원자는 해당 조건에 맞는 서류를 준비해야 합니다.
+더 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 일부 정확한 정보를 포함하고 있지만, 만 30세 이상이라는 조건과 검정고시 및 외국고교 졸업자에 대한 지원 불가능 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 추가 정보를 포함하고 있어 일관성이 부족합니다. 원본 텍스트는 단순히 고교 졸업(예정)자 또는 동등학력 소지자만을 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 평생학습자전형의 지원자격에 대한 정보를 제공하고 있으나, 추가된 조건들이 원본 텍스트와 관련이 없기 때문에 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 정보가 나열되어 있지만, 추가된 조건들이 원본 텍스트와의 연결이 부족하여 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있어 정확성이 낮습니다. 특히, 만 30세 이상이라는 조건은 원본에 없으며, 이는 잘못된 정보입니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 추가된 정보가 원본의 맥락과 맞지 않아 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.7203079692837141</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정보를 바탕으로, 평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+- 검정고시 출신자 (지원 불가능)
+- 외국고교 졸업(예정)자 (지원 불가능)
+이 정보는 2024년도에 대한 것이므로, 최신 정보를 확인하려면 공식 웹사이트를 참조하시기 바랍니다. "https://ipsi. deu. ac. kr/main. do"</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트에서 명시된 대기실 및 입실시간에 대한 내용을 누락하고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 실기고사에 대한 언급이 없다고 주장하고 있습니다. 이는 원본 텍스트의 내용을 부정하는 것으로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 요청하는 질문에 대해 관련된 정보를 제공하지 않지만, 다른 전형이나 모집단위에 대한 설명을 언급하고 있어 어느 정도 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 부족하여 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 실기고사에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답은 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 모두 부족한 점수를 기록했습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와는 다소 다르지만, 실기고사에 대한 정보 요청에 대한 응답으로는 적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확하게 전달되고 있습니다. 다만, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.4003450804712629</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 실기고사에 대한 언급이 없습니다. 다른 전형이나 모집단위에 대해 자세히 설명되어 있지만, 특정 단과대학이나 학과의 실기고사 장소는 명시되지 않았습니다. 
+실제 고시장소는 해당 대학 또는 학부에서 공지하거나 지원서에 포함될 것입니다. 만약 구체적인 정보가 필요하다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 방문하여 최신 안내사항을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보를 제공하지 않으며, 링크를 통해 확인하라는 제안이 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 정보는 명확하게 대기실 및 입실시간에 대한 내용을 포함하고 있어, 응답이 일부 사실을 누락하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다. 원본 텍스트는 특정 날짜와 시간을 명시하고 있지만, 생성된 응답은 그에 대한 언급이 없고, 링크를 통해 확인하라는 내용으로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하려고 하지만, 원본 텍스트의 구체적인 내용에 대한 언급이 부족하여 다소 관련성이 떨어집니다. 그러나 링크를 제공함으로써 관련 정보를 찾을 수 있는 방법을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 처음 부분의 문장이 다소 어색하게 시작되어 개선의 여지가 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 정보가 일관되게 전달되고 있습니다. 그러나 원본 텍스트의 구체적인 내용을 반영하지 않아 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 누락하고 있으며, 실기고사 대기실 및 입실시간에 대한 정보가 포함되어 있지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 일부 정보는 유용하지만, 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련된 정보를 제공하려고 하지만, 구체적인 세부사항이 부족하여 의미 전달이 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달을 위해 링크를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용을 반영하지 않아 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.3773707373262127</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서는 체육학과의 실기고사와 관련된 특정 장소에 대한 언급이 없습니다. 따라서 "https://ipsi.deu.ac.kr/main.do" 링크를 참조하여 자세한 정보를 확인해 보시는 것이 좋겠습니다. 해당 웹사이트에서는 각 학과의 실기고사 장소와 기타 관련 정보가 공개되어 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 사실을 잘못 전달하고 있습니다. 원문에서는 전화로 개별 연락을 하지 않는다고 명시되어 있지만, 생성된 응답에서는 개별 전화 통보를 받을 수 있다고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문에서는 전화 통보가 이루어지지 않는다고 명확히 설명하고 있으나, 생성된 응답은 이를 반박하는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 정보를 포함하고 있지만, 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다. 원문에서 강조하는 전화 통보의 부재에 대한 내용이 왜곡되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성이 떨어지기 때문에 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약해집니다. 전화 통보에 대한 잘못된 정보가 포함되어 있어 혼란을 초래합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 크게 다릅니다. 전화 통보가 이루어지지 않는다는 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 잘못된 정보로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와 맥락을 왜곡하고 있습니다. 전화 통보가 이루어지지 않는다는 원문의 의미와 상반되는 내용을 포함하고 있어 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.660886367388524</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수시 충원 합격자 발표 후에는 개별 전화 통보를 받을 수 있습니다. 하지만 모든 합격자는 먼저 홈페이지에서 개별 조회를 통해 결과를 확인해야 합니다. 이후에 입학관리팀으로부터 추가적인 안내가 있을 것입니다.
+만약 자세한 사항이 필요하다면, "https://ipsi.deu.ac.kr/main. do" 링크를 참조해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 언급하고 있지만, 2024학년도 모집 인원과 경쟁률에 대한 정보는 원본 텍스트와 관련이 없습니다. 따라서 일부 사실은 정확하지만, 전체적으로는 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, 2024학년도에 대한 정보는 원본 텍스트에서 다루지 않기 때문에 일관성이 떨어집니다. 원본 텍스트의 주제와는 다른 내용을 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 2023학년도 경찰행정학과 수시모집 결과에 대한 질문에 대한 답변을 제공하고 있으며, 관련된 웹사이트 링크를 제시하고 있습니다. 그러나 2024학년도에 대한 정보는 질문과 직접적인 관련이 없으므로 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "https://ipsi. deu.ac.kr/main.do"에서 공백이 있어 약간의 수정이 필요합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도에 대한 정보가 포함되어 있어 주제의 일관성이 약간 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2023학년도 수시모집 결과에 대한 정보가 없다는 점에서 정확하지만, 2024학년도에 대한 정보는 원본 텍스트와 관련이 없으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 원본 텍스트와의 일치성 및 관련성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 일부 일치하지만, 2024학년도에 대한 정보는 주제와 관련이 없으므로 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 정보가 주제와 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.8109328077277707</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 데이터 내에서는 직접적으로 확인할 수 없습니다. 하지만, 2024학년도 경찰행정학과의 모집 인원이 7명이고 지원 인원이 29명으로 경쟁률이 4.14임을 알 수 있습니다.
+2023학년도의 정확한 수시모집 결과를 확인하려면, 해당 대학의 공식 웹사이트인 "https://ipsi. deu.ac.kr/main.do"에서 더 자세한 정보를 찾아보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능에 응시하지 않아도 지원할 수 있다고 주장하지만, 원문에서는 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상반된 내용을 포함하고 있습니다. 원문은 수능 응시가 필수라고 명시하고 있지만, 생성된 응답은 수능을 응시하지 않아도 지원할 수 있다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 다양한 전형에 대한 정보를 제공하지만, 원문 질문에 대한 직접적인 답변이 아닙니다. 원문에서 요구하는 정보와는 관련성이 떨어지며, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 정보를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족합니다. 원문과의 연결이 약해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 상반되는 정보를 포함하고 있습니다. 수능 응시가 필수라는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문의 의미와는 다르게 해석될 수 있는 내용을 포함하고 있습니다. 원문의 맥락과는 맞지 않는 정보가 많아 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있는 내용이지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 정보가 명확하게 전달되지 않아 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.4426084512979847</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2023년과 2024년에는 '수능 (일반학생전형)' 외에도 다양한 전형이 있어 수능을 응시하지 않더라도 지원 가능합니다. 
+- **실기/실적 위주 전형**: 경기실적우수자전형, 조기취업형계약학과전형 등이 있습니다.
+- **학생부종합 평가 전형**: 성인학습자전형, 재직자전형 등이 있어 학생부 기록을 바탕으로 지원할 수 있습니다.
+특히 '나군'에서의 '학생부교과(농어촌학생전형)'는 농어촌 지역 거주 경력 등을 고려하여 지원 가능합니다. 
+따라서 수능 응시 여부와 관계없이 다양한 전형을 통해 지원이 가능하므로, 자격 조건을 확인하시고 적합한 전형에 지원해보세요.
+더 자세한 내용은 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 방문하여 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지난 경우에도 정시 지원이 가능하다는 원문 내용을 잘못 해석하고 있습니다. 원문에서는 모든 고등학교 졸업자가 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 일반전형에서는 지원이 어려울 것이라고 언급하고 있어 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공합니다. 원문은 고등학교 졸업 시기와 관계없이 지원이 가능하다고 명시하고 있지만, 생성된 응답은 3년 이내의 지원자만 선발된다고 하여 모순된 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있지만, 원문에서 강조한 점을 충분히 반영하지 못하고 있습니다. 원문이 정시 지원 가능성을 강조하는 반면, 생성된 응답은 제한적인 조건을 제시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용을 가지고 있지만, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 원문과의 연결이 약해 응답의 흐름이 매끄럽지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충되는 내용을 포함하고 있어 정확성이 떨어집니다. 원문은 모든 졸업자가 지원 가능하다고 명시하고 있지만, 생성된 응답은 특정 조건을 제시하여 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원문에서의 의미와 다르게 해석되고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5439058998855333</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>2024년도에 대한 정보를 기반으로 답변 드리겠습니다. 일반적으로 대학 입시에서는 고등학교 졸업 후 3년 이내의 지원자가 주로 선발대상이지만, 평생학습자전형이나 성인학습자전형 등 특별전형을 통해 10년 경과한 경우에도 지원이 가능합니다.
+하지만, 정시모집 일반전형에서는 고등학교 졸업 후 3년 이내의 지원자가 주로 선발대상입니다. 따라서 2024년도에 대한 정시모집 일반전형에서는 지원이 어려울 것으로 예상됩니다.
+특별전형인 평생학습자전형이나 성인학습자전형을 통해 지원할 수 있으나, 이 경우에도 다음과 같은 요건들이 필요합니다:
+1. 산업체에서 3년 이상 재직한 경력이 있어야 합니다.
+2. 고등학교 졸업 후 3년 이상의 시간 동안 학교 교육을 받지 않은 상태였어야 합니다.
+따라서, 정시모집 일반전형에서는 지원이 어려울 것으로 보입니다. 특별전형인 평생학습자전형이나 성인학습자전형을 통해 지원 가능성을 확인해보시는 것이 좋겠습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나, 대학 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7740580926918393</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 일정을 설명드리겠습니다.
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고가 됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감 시간은 각각의 일정 마지막 날 오후 6시까지입니다. 접수 사이트는 [http://ipsi. deu. ac. kr](http://ipsi.deu.ac.kr) 또는 [http://www. uwayapply. com](http://www.uwayapply.com) 입니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출하며, 마감 시간은 각각의 일정 마지막 날 오후 5시까지 도착해야 합니다. 서류 제출 방법은 접수 사이트에서 우편발송용 표지를 출력하여 부착하거나 우편으로 발송할 수 있습니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일(화)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일(수)에 실시되며, 대기실 및 입실시간 안내는 2024년 1월 12일(금) 오후 2시 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+6. **합격자 발표 및 등록금 납부**: 
+   - 최초 합격자 발표: 2024년 2월 2일(금) 오후 2시
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 13일(화)까지 (은행 마감 시간 내)
+   - 충원 합격자 발표 및 등록: 
+     - 1차 충원 합격자 발표: 2024년 2월 14일(수) 오전 9시
+     - 1차 충원 합격자 등록: 2024년 2월 14일(수) 오전 9시부터 오후 4시까지
+이상이 동의대학교 정시 모집 일정입니다. 자세한 내용은 입학안내 홈페이지를 참조하시거나, 필요하다면 "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명된 내용은 대체로 정확하지만, "마감 시간은 각각의 모집단위에 따라 다릅니다."라는 문구는 원본 텍스트에 명시된 구체적인 마감 시간을 생략하고 있어 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 전반적으로 일관성이 있습니다. 그러나 일부 세부사항이 생략되거나 다르게 표현되어 있어 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 일부 항목 간의 연결이 조금 더 매끄러울 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 정보는 대체로 정확하지만, 특정 세부사항이 생략되어 있어 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 의미적으로 적절하며, 원본 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.8929759067701022</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일(화) 입학안내 홈페이지에서 공고됩니다.
+2. **원서접수 (인터넷)**: 2024년 1월 3일(수)부터 6일(토)까지 원서를 접수하며, 마감 시간은 각각의 모집단위에 따라 다릅니다. 원서접수는 입학안내 홈페이지 또는 uwayapply. com에서 진행할 수 있습니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일(수)부터 12일(금)까지 서류를 제출하며, 마감 시간은 각각의 모집단위에 따라 다릅니다. 서류는 접수사이트에서 우편발송용 표지를 출력하여 부착하거나 직접 우편으로 발송할 수 있습니다.
+4. **실기고사 (가군, 나군)**: 
+   - 레저스포츠학과와 태권도학과의 실기고사는 2024년 1월 16일(화)에 진행됩니다.
+5. **실기고사 (나군, 다군)**: 디자인조형학과, 체육학과는 2024년 1월 17일(수)에 실기고사를 진행합니다.
+**합격자 발표 및 등록금 납부**: 
+- 최초 합격자 발표는 2024년 2월 2일(금) 14:00부터 입학안내 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+- 최초 합격자 등록은 2024년 2월 7일(수)부터 13일(화)까지 학교 지정은행에서 진행됩니다.
+**충원 합격자 발표 및 등록**: 
+- 충원 합격자는 2024년 2월 14일(수) 9:00부터 16:00까지 입학안내 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+- 충원 합격자 등록은 2024년 2월 15일(목) 9:00부터 16:00까지 학교 지정은행에서 진행됩니다.
+**추가 합격자 발표 및 등록**: 
+- 추가 합격자는 2024년 2월 15일(목) 19:00부터 20일(화) 18시까지 입학안내 홈페이지에서 개별 조회가 가능하며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소 역시 학교 지정은행입니다.
+이상과 같이 동의대학교 정시 모집 일정을 설명하였습니다. 자세한 내용은 입학안내 홈페이지를 참조하시기 바랍니다. 더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 있다고 주장하고 있지만, 원본 텍스트에서는 수능 성적이 요구되며 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 사실과 완전히 일치하지 않으며, 여러 가지 부정확한 정보가 포함되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원 가능한 전형이 있다고 주장하고 있습니다. 이로 인해 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 정시 모집에 대한 질문에 대한 답변을 시도하고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 거리가 멉니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성이 떨어지기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 흐름을 가지고 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 내용이 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 포함하고 있습니다. 수능 미응시자가 지원할 수 있다는 주장은 명백한 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.6729077162414688</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 "다군(일반학생전형)"입니다. 이 전형에서는 수능 점수를 요구하지 않으며, 학생부와 교과 성적 등을 기준으로 평가합니다.
+"다군(일반학생전형)"의 특징을 요약하면 다음과 같습니다:
+1. 수능 미응시자도 지원 가능
+2. 모집단위: 인문사회과학대학, 상경대학, 공과대학, ICT융합공과대학 등 다수의 단과대학 및 계열
+3. 평가 기준: 학생부 성적, 교과 성적 등
+따라서 수능 미응시자도 동의대학교 정시 모집에서 지원이 가능한 "다군(일반학생전형)"을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전년도 전자공학과의 충원 합격 인원을 63명으로 잘못 기재하였으며, 지원 인원도 34명으로 잘못 언급하고 있습니다. 원본 텍스트에 따르면 전년도 충원 합격은 36명입니다. 따라서 사실과 크게 다릅니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 충원 합격 차수에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 지원 인원과 충원 합격 수에 대한 잘못된 정보를 포함하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전자공학과의 모집에 대한 정보를 제공하고 있으나, 잘못된 정보로 인해 원본 텍스트의 핵심 내용과는 거리가 있습니다. 그러나 여전히 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있으며, 주제에 대한 일관된 흐름을 유지하고 있습니다. 그러나 잘못된 정보로 인해 신뢰성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 잘못된 수치를 제공하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 심각한 문제를 가지고 있어 다차원 품질 점수는 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 주제와 관련이 있지만, 잘못된 정보로 인해 의미적으로 부적절한 부분이 있습니다. 원본 텍스트의 맥락과 맞지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문장이 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.688108104762343</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024학년도 모집단위인 전자공학과의 경우, 지원 인원이 34명이고 충원 합격은 63명까지 이루어졌습니다. 이는 전년도와 비교하여 지원 인원이 더 많아진 것으로 보입니다. 하지만 전년도에 대한 자세한 정보가 제공되지 않았기 때문에 정확한 차수를 알 수 없습니다. 필요하다면 공식 웹사이트인 "https://ipsi. deu. ac. kr/main. do"에서 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호가 제공되지 않았다고 주장하지만, 원본 텍스트에는 명확하게 전화번호가 기재되어 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 정보를 제공합니다. 원본 텍스트에 있는 전화번호를 무시하고 다른 정보를 제시하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 전화번호에 대한 질문에 대한 답변으로는 적절하지 않지만, 추가 정보를 찾기 위한 웹사이트 방문을 언급하고 있어 일부 관련성이 있습니다. 그러나 주된 질문에 대한 답변이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원본 텍스트와의 불일치로 인해 일관된 흐름이 부족합니다. 전화번호에 대한 언급이 없기 때문에 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 전화번호가 없다고 잘못된 정보를 제공합니다. 따라서 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 관계가 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전화번호에 대한 질문에 대한 적절한 답변이 아닙니다. 그러나 웹사이트 방문을 언급한 점에서 일부 의미적 적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.67586157009237</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 동의대학교 입학처의 전화번호가 없습니다. 추가로 필요한 정보를 확인하기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 방문해보시거나, 직접 동의대학교 입학처에 연락하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전화 통화가 되지 않는 경우에도 합격자 발표가 진행된다고 언급하고 있지만, 원문에서는 전화 연락이 두절되면 해당 지원자는 등록 의사가 없는 것으로 간주된다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생하므로 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문에서는 전화 통화가 되지 않으면 등록 포기자로 처리된다고 명시되어 있으나, 생성된 응답은 합격자 발표가 진행된다고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 정보를 제공하고 있지만, 원문에서 강조하는 전화 통화의 중요성에 대한 언급이 부족합니다. 그러나 합격자 발표 및 등록 절차에 대한 정보는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원문과의 차이로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제시된 사실과 크게 다르며, 전화 통화가 되지 않는 경우의 처리 방식에 대한 정확성이 부족합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실관계와 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미와 다소 다르게 해석될 수 있는 부분이 있으며, 원문의 맥락을 완전히 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용이지만, 원문과의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.63982625164333</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우에도 합격자 발표는 진행됩니다. 합격자는 홈페이지에서 개별적으로 조회할 수 있으며, 고지서도 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행이며, 등록금 납부는 등록금 고지서에 기재된 지정은행에서 처리해야 합니다.
+따라서 전화 통화가 되지 않더라도, 합격자 발표 및 등록 절차를 진행할 수 있습니다. 홈페이지를 통해 정보를 확인하고, 필요한 서류를 준비하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 필요한 서류와 조건을 정확하게 나열하고 있습니다. 그러나 "고교 졸업증명서"와 같은 추가 서류에 대한 언급이 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 그러나 "고교 졸업증명서"와 같은 추가 서류에 대한 언급이 원본 텍스트에 포함되어 있지 않아 약간의 불일치가 발생합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 명확하게 제공합니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 대부분의 정보를 정확하게 반영하고 있지만, 원본 텍스트에 없는 추가 서류에 대한 언급이 있어 완전한 정확성은 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 약간의 부정확성과 불일치로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.7646109419138819</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 유형에 따라 다릅니다. 
+1. **6년 과정**:
+   - 지원자 본인의 가족관계증명서 1부
+   - 지원자 본인, 부모의 주민등록초본 각 1부 (총 3부)
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+   - 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부(기본증명서에 '사망'이 명시되어 있지 않은 경우 제적등본 1부)를 추가로 제출
+   - 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부를 추가 제출
+2. **12년 과정**:
+   - 지원자 본인의 주민등록초본 1부
+   - 초등학교 학교생활기록부 1부
+   - 중학교 학교생활기록부 1부
+   - 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이 외에 추가로 제출해야 할 서류가 있습니다:
+- **6년 과정**:
+  - 고교 졸업증명서, 지원자 본인, 부모 초본 각 1부 (총 3부)
+- **12년 과정**:
+  - 고교 졸업증명서, 지원자 본인 초본 1부
+이러한 서류들은 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급할 수 있습니다. 자세한 내용은 해당 대학의 입시 홈페이지를 참조하시거나 문의해보세요. https://ipsi. deu. ac. kr/main. do</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 필요한 서류 목록을 정확하게 나열하고 있습니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다"라는 부분이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 필요한 서류를 나열하고 있습니다. 다만, 추가 서류에 대한 설명이 부족하여 일관성에서 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 서류 목록이 명확하게 나열되어 있습니다. 그러나 추가 서류에 대한 설명이 부족하여 완전한 일관성에는 다소 부족합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 일부 세부사항이 누락되어 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 세부사항의 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 세부사항이 누락되어 있어 의미 전달에 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 일부 표현이 다소 어색할 수 있어 완전한 이해에는 다소 부족할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.8438460412112114</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원 시 필요한 서류는 다음과 같습니다:
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+이러한 서류를 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 정확하게 반영하고 있으며, 저소득 기회균등 전형이 실시되지 않는다는 점도 명확히 언급하고 있습니다. 그러나 "저소득 기회균등 전형으로 선발되는 것은 없습니다"라는 표현은 다소 모호할 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되며, 기회균등 전형이 존재하지 않는다는 내용을 잘 전달하고 있습니다. 다만, "저소득 기회균등 전형"이라는 표현이 원본 텍스트의 "기회균등 전형"과 다소 다르게 해석될 수 있어 약간의 일관성 문제를 나타냅니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 기회균등 전형에 대한 정보를 명확히 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 "따라서 저소득 기회균등 전형으로 선발되는 것은 없습니다" 부분이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 일관되게 전달됩니다. 다만, "이 정보는 제공된 컨텍스트에서 추론한 것입니다"라는 문장이 다소 불필요하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 기회균등 전형이 존재하지 않는다는 점을 정확히 전달하고 있습니다. 그러나 "저소득 기회균등 전형"이라는 표현이 원본 텍스트와의 정확한 일치를 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 및 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "저소득 기회균등 전형"이라는 표현이 원본 텍스트의 의미를 완전히 반영하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 전달됩니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.6494895321457647</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 나군 정시 모집에서는 저소득 기회균등 전형을 실시하지 않습니다. 따라서 저소득 기회균등 전형으로 선발되는 것은 없습니다.
+이 정보는 제공된 컨텍스트에서 추론한 것입니다. 만약 더 최신의 정보나 변경 사항이 필요하다면, "https://ipsi.deu.ac.kr/main.do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 여부에 대한 정보가 포함되어 있지 않다는 원문과 상반된 내용을 담고 있습니다. 원문에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답에서는 2.5 등급이 절사되지 않고 그대로 반영된다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 2.5 등급이 절사되지 않는다고 주장하여 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다. 원문에서 제시한 정보와는 다르게 해석되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 신뢰성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결되어 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 원문에서 명시된 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 잘못된 정보로 인해 의미적으로 부적절합니다. 원문의 맥락을 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.7299124341741589</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2.5 등급은 절사되지 않고 그대로 반영됩니다. 수능 최저등급에서 사탐 2 과목 평균산출을 할 때도 실수에서는 절사하지 않습니다. 따라서 2.5 등급이 나온다면 그대로 2.5 등급으로 처리될 것입니다.
+만약 더 자세한 정보가 필요하시거나 다른 질문이 있으시면 https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차 발표와 3차 이후 발표 일정은 정확하게 언급하고 있지만, 2차 발표 일정이 "같은 날 오후 4시까지"로 잘못 기재되어 있습니다. 원본 텍스트에서는 2차 발표가 2024년 2월 15일 오전 9시에 이루어진다고 명시되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 2차 발표 일정에 대한 정보가 일치하지 않아 일관성이 떨어집니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 합격자 발표 일정에 대한 정보를 잘 전달하고 있습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있어 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보가 명확하게 전달됩니다. 그러나 2차 발표 일정의 오류로 인해 완전한 일관성을 유지하지 못하므로 점수를 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2차 발표 일정에 대한 잘못된 정보로 인해 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 관련성, 유창성, 일관성에서 좋은 점수를 받았지만, 사실성과 정확성에서의 오류로 인해 점수를 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 2차 발표 일정의 오류로 인해 약간의 부적절함이 발생하였습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용이지만, 2차 발표 일정의 오류로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.8179093127845927</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 정시 충원 합격자 발표는 총 3차로 이루어집니다. 
+1차 발표 일정은 2024년 2월 14일(수) 오전 9시입니다.
+2차 발표 일정은 같은 날 오후 4시까지 진행됩니다.
+3차 이후 발표 일정은 2024년 2월 15일(목) 오후 7시부터 2024년 2월 20일(화) 오후 6시까지입니다.
+이와 같이 총 3차로 합격자 발표가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e-비즈니스학과의 모집 상황에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 수능 성적 평균에 대한 구체적인 언급이 부족합니다. 또한, 수능 4개 영역 등급 평균을 확인해야 한다고 언급했으나, 원본 텍스트에서 이미 평균이 제시되어 있습니다. 따라서 일부 사실이 누락되었거나 불완전하게 반영되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 수능 4개 영역 등급 평균을 확인해야 한다고 언급한 부분은 원본 텍스트에서 이미 제공된 정보와 상충합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e-비즈니스학과의 추가 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 구체적인 수치와 비교하는 데 필요한 정보가 부족합니다. 전반적으로 관련성이 높지만, 더 구체적인 정보가 필요합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조로 작성되었습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 수능 4개 영역 등급 평균에 대한 구체적인 수치를 제공하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 다소 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 주제와 관련된 정보를 제공합니다. 그러나 원본 텍스트의 구체적인 수치와 비교하는 데 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 완전한 명확성은 부족합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5678936649755911</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024학년도에 e비즈니스학과의 모집 상황을 보면, 해당 학과는 경쟁률이 높지 않고 지원 인원이 많지 않은 것으로 보입니다. 하지만 정확한 추가 합격 가능성 판단을 위해서는 다음과 같은 정보가 필요합니다:
+1. **수능 4개 영역 등급 평균**: 2024학년도 e비즈니스학과의 수능 4개 영역 등급 평균을 확인해야 합니다.
+2. **수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균**: 이 정보를 통해 지원자의 수능 성적이 어느 정도인지 판단할 수 있습니다.
+제공된 데이터에서 e비즈니스학과의 정확한 수능 등급 평균을 확인하지 못했습니다. 따라서, 현재 상황에서는 e비즈니스학과의 수능 4개 영역 등급 평균과 (가산점 포함) 표준 변환 점수 합 평균을 찾아보시거나, 해당 대학의 입학처 웹사이트를 참조해 보시는 것이 좋습니다.
+만약 추가 정보를 제공받지 못한다면, "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 최초합격자에 대한 정보는 출처 텍스트와 관련이 없습니다. 또한, 5.3의 영어 등급 점수가 107점이라는 주장은 출처에서 제공된 정보와 일치하지 않으며, 이로 인해 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 출처 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 특히, 금융경영학과와의 관련성에 대한 언급은 출처 텍스트에서 다루지 않으며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 합격 가능성에 대한 질문에 답변하고 있지만, 금융경영학과와의 관련성에 대한 언급은 주제와 직접적으로 관련이 없습니다. 그러나 전반적으로 주제와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족합니다. 특히 금융경영학과와의 관련성에 대한 언급이 갑작스럽게 등장하여 일관된 흐름을 방해합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답에서 제공된 정보 중 일부는 정확하지만, 5.3의 영어 등급 점수가 107점이라는 주장은 출처 텍스트와 일치하지 않으며, 이는 정확성을 저해합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 의미가 적절하고 출처 텍스트의 맥락과 일치하지만, 금융경영학과와의 관련성에 대한 언급은 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.6636569896277597</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>2024학년도 e비즈니스학과의 최초합격자로 금융경영학과가 선정되었습니다. 이는 e비즈니스학과와 금융경영학과 간의 관련성이 높아서 금융경영학과에 합격한 경우 e비즈니스학과에서도 좋은 성적을 기록할 가능성이 있습니다.
+하지만 정확한 최초합격 가능성은 수능 점수, 학생부 교과성적 등 다양한 요인에 따라 달라집니다. 5.3의 영어 등급 점수가 동의대학교 e비즈니스학과의 입학 기준을 충족하는지 확인해야 합니다.
+동의대학교 e비즈니스학과의 수능 전형성적 산출 방법은 다음과 같습니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급점수 (5.3이 107 점)
+- 탐구 표준점수
+따라서, 5.3의 영어 등급 점수가 107 점으로 동의대학교 e비즈니스학과의 입학 기준을 충족한다면, 최초합격 가능성은 있습니다.
+만약 더 자세한 정보가 필요하다면, https://ipsi. deu. ac. kr/main. do를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 예비합격 여부를 판단하기 어렵다고 언급하고 있지만, 원문에서는 예비 38번의 경우 예비 합격 가능성이 낮다고 명확히 언급하고 있습니다. 따라서, 사실관계에서 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 상충하는 정보를 제공합니다. 원문은 예비 38번의 가능성이 낮다고 명시했으나, 생성된 응답은 다양한 요소를 고려해야 한다고 하여 모호한 입장을 취하고 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원문과 관련된 정보를 제공하지만, 원문에서 제시한 구체적인 예비합격 가능성에 대한 질문에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원문과의 연결성이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공하는 구체적인 사실을 반영하지 않고, 예비합격 가능성에 대한 명확한 정보를 제공하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원문과의 일치성, 사실성, 관련성에서 낮은 점수를 받았습니다. 따라서 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원문의 맥락과 관련된 정보를 제공하지만, 원문에서 요구하는 구체적인 질문에 대한 답변이 부족하여 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 관계가 명확하지 않아 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.4900029955151738</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 예비합격 여부를 판단하기 어렵습니다. 전형별로 수능 성적, 학생부 교과성적 등 다양한 요소가 고려되므로, 이정도의 점수만으로는 결정이 불가능합니다.
+다군(일반학생전형)의 경우:
+- 인문사회과학대학, 상경대학 모집단위에서는 국어 + 수학 + 영어 + 탐구 성적을 합산하여 평균을 내고 절대평가로 처리합니다.
+- 공과대학, ICT융합공과대학 모집단위에서는 위와 동일하지만, 수학(미적분 또는 기하) 응시자의 경우 수학 표준점수에 0.1을 곱한 값을 추가로 합산합니다.
+따라서, 정확한 예비합격 여부를 판단하기 위해서는:
+1. 자신이 지원하는 단과대학 및 계열의 모집단위를 확인해야 합니다.
+2. 해당 모집단위의 최소 합격 점수 기준을 알아야 합니다.
+3. 자신의 수능 성적과 학생부 교과성적 등을 종합적으로 고려해야 합니다.
+추가 정보:
+- 수능 영어 등급에 따른 점수 변환표를 참고하여 영어 등급의 점수를 계산합니다.
+- 학생부 교과성적을 반영받는 전형에서는 해당 과목의 성적을 확인해야 합니다.
+따라서, 정확한 판단을 위해서는 동의대학교의 공식 홈페이지 (https://ipsi. deu. ac. kr/main. do)를 참조하거나, 학교 입학처에 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.44라는 성적이 간호학과에 합격할 수 있는 점수라고 주장하지만, 원문에서는 3.44가 간호학과에 합격하기 어려울 수 있다고 명시하고 있습니다. 이로 인해 사실관계에 큰 차이가 발생합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 상반된 정보를 제공합니다. 원문에서는 3.44가 간호학과에 합격하기 어려울 수 있다고 하였으나, 생성된 응답은 합격 가능성이 있다고 주장합니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 관련된 내용을 다루고 있으며, 간호학과의 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 상반된 주장을 하고 있어 정확성이 낮습니다. 3.44라는 성적이 합격 가능성이 있다고 주장하는 것은 원문과의 사실적 불일치를 초래합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성에서 어느 정도 긍정적인 평가를 받을 수 있지만, 사실성과 정확성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 사실관계의 오류로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6637964936785458</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분히 합격할 수 있는 점수일 것입니다. 간호학과는 일반적으로 높은 학업성적을 요구하지만, 정시 모집에서 성적 외에도 인성, 전공 적합성 등 다양한 요소를 고려합니다.
+현재 제공된 정보로는 간호학과의 정원 내 모집 인원이 110명이고, 나군 일반 학생 모집 인원이 22명으로 적은 편입니다. 이에 따라 경쟁률이 높을 수 있으나, 성적 외 요소가 중요하게 작용하기 때문에 3.44이라는 점수로도 합격 가능성은 있습니다.
+하지만, 최종 합격 여부는 입학사정관이 평가하는 다양한 요소를 고려하여 결정되므로, 정확한 확신을 가질 수는 없습니다. 따라서, 동의대학교 간호학과에 지원하시고, 서류 제출 및 면접 준비를 철저히 하시는 것이 좋겠습니다.
+더 자세한 정보나 추가적인 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 간호학과의 입학 기준에 대한 여러 요소를 고려하고 있지만, 제공된 데이터에서 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 언급이 없고, 2.52라는 점수가 평균 등급보다 높은 성적이라는 점을 명확히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되거나 잘못 해석된 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 입학 기준을 충족하는지에 대한 여러 요소를 제시하고 있지만, 원본 텍스트에서 언급된 평균 등급과의 비교가 부족하여 일관성이 떨어집니다. 특히, 2.52라는 점수가 평균 등급보다 높은 성적이라는 점이 명확히 반영되지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 간호학과의 입학 기준에 대한 정보를 제공하고 있으며, 질문에 대한 답변으로서 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보를 충분히 반영하지 못한 점이 아쉽습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 순차적으로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 2.52라는 점수가 평균 등급보다 높은 성적이라는 점을 명확히 반영하지 못하고 있습니다. 또한, 경쟁률과 표준 변환 점수에 대한 정보는 제공되었으나, 이들이 질문에 대한 직접적인 답변으로서의 정확성을 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 적절한 정보를 제공하고 있지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 핵심 내용을 충분히 반영하지 못한 점이 아쉽습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6007547156479147</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2.52라는 점수는 동의대학교 간호학과의 입학 기준을 충족하는지 확인하기 위해서는 몇 가지 요소를 고려해야 합니다.
+1. **경쟁률**: 동의대학교 간호학과의 경쟁률은 6.59입니다. 이는 지원자가 많다는 것을 의미합니다.
+2. **성적 기준**: 동의대학교 간호학과의 입학 성적 기준을 확인해야 합니다. 일반적으로 국어, 수학, 탐구 등급 점수와 수능 4개 영역 등급 점수가 합산되어 평균 점수를 산출합니다.
+3. **표준 변환 점수**: 제공된 데이터에서 "수능 4개 영역 (가산점 포함) 표준 변환 점수 합"의 평균이 481.70이고, 표준 편차가 6.87입니다.
+2.52라는 점수는 현재 제공된 데이터로는 간호학과의 입학 기준을 충족하지 못하는 것으로 보입니다. 하지만 이는 단순히 평균과 표준 편차만으로 판단하는 것이 아니라, 지원자의 전체 성적과 경쟁률 등을 고려해야 합니다.
+따라서, 2.52라는 점수로 동의대학교 간호학과에 최종 합격할 수 있을지는 확실하지 않습니다. 더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처와 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 정시 등급에 대한 정보를 정확하게 반영하고 있습니다. 그러나 "3.7의 평균 점수로 간호학과에 정시 전형으로 합격하기는 어렵다고 볼 수 있습니다."라는 문장은 다소 모호하게 표현되어 있어, 평균 등급보다 낮다는 점을 명확히 하지 못하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 유지되고 있으며, 정시 전형의 합격 가능성에 대한 논의가 원본의 내용과 잘 연결되어 있습니다. 다만, "고른 학업 역량이 필요하다"는 추가 정보는 원본에 명시되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 "정확한 합격 가능성은 해당 대학교의 정시 모집 기준 점수와 비교하여 판단해야 합니다." 부분이 다소 갑작스럽게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, "3.7의 평균 점수"라는 표현이 다소 부정확하게 느껴질 수 있습니다. 원본에서는 3.7이 평균보다 낮다고 명시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 및 정확성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.6981819844527529</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>3.7의 평균 점수로 간호학과에 정시 전형으로 합격하기는 어렵다고 볼 수 있습니다. 간호학과는 보통 높은 성적을 요구하며, 특히 정시 모집에서는 고른 학업 역량이 필요합니다.
+하지만, 정확한 합격 가능성은 해당 대학교의 정시 모집 기준 점수와 비교하여 판단해야 합니다. 각 대학별로 정시 모집에 대한 성적 기준이 다르므로, "https://ipsi.deu.ac.kr/main.do"를 참조하거나 간호학과의 입학처 웹사이트를 확인해보는 것이 좋습니다.
+또한, 학업 외 활동이나 특기사항 등이 있다면 이를 강조하여 지원하는 것도 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 간호학과의 평균 영어 등급과 수능 4개 영역 등급에 대한 정보를 포함하고 있지만, 정시 성적이 2.58일 경우 합격 가능성이 높다는 원본 텍스트의 주장을 반박하는 내용을 담고 있습니다. 이는 원본 텍스트의 사실과 상충하므로 점수를 낮게 평가했습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관되지 않습니다. 원본 텍스트는 2.58의 성적이 평균보다 높다고 언급했으나, 생성된 응답은 이 성적이 평균 점수보다 낮다고 주장하고 있습니다. 이러한 상충으로 인해 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 점수와 관련된 정보를 제공하고 있으며, 질문에 대한 답변을 시도하고 있습니다. 그러나 원본 텍스트의 핵심 주제와는 약간의 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 정시 성적에 대한 결론이 원본 텍스트와 상충하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 정시 성적에 대한 해석이 원본 텍스트와 다르기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 다르게 해석되고 있으며, 특히 합격 가능성에 대한 주장이 상충하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.6747382325592409</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 간호학과의 모집 정보를 바탕으로 평균 점수와 표준 편차를 살펴보겠습니다.
+간호학과의 경우, 정시모집군은 다음과 같습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 353.48, 표준 편차 4.66
+- **영어 등급**: 평균 2.34, 표준 편차 0.69
+- **수능 4개 영역 등급**: 평균 3.37, 표준 편차 0.29
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 481.70, 표준 편차 6.87
+제시된 정시 성적은 국어 + 수학 + 탐구(2개)의 표준 변환 점수가 주요한데, 이는 258.00입니다 (2.58을 표준 변환 점수로 가정).
+간호학과의 평균 점수인 353.48보다 낮습니다. 그러나 표준 편차가 4.66이므로, 이는 상대적으로 작은 범위를 의미합니다. 따라서, 정시 성적이 2.58이라면 합격 가능성은 매우 낮다고 볼 수 있습니다.
+만약 더 자세한 정보나 다른 전형을 고려하고자 한다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조하시거나 대학 관계부에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 예비번호 7번이 합격할 가능성이 높다고 주장하지만, 원본 텍스트에서는 예비번호 7번의 합격 가능성이 낮다고 명시하고 있습니다. 따라서 사실관계가 완전히 반대입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 원본에서는 예비번호 7번의 합격 가능성이 낮다고 하였으나, 생성된 응답에서는 그 반대의 주장을 하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 포함하고 있지만, 주된 내용인 예비번호 7번의 합격 가능성에 대한 정보가 왜곡되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 불필요하게 복잡하게 표현되어 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 논리적인 흐름이 부족합니다. 특히, 예비번호 7번에 대한 결론이 원본과 일치하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 정보를 제공하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실관계, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락을 왜곡하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 전반적으로 이해할 수 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.6474590318738089</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>2024학년도 게임공학과의 모집 인원은 3명이며, 지원 인원이 16명으로 경쟁률이 5.33입니다. 충원 합격자는 3명이었으므로 예비번호 7번의 경우 붙을 확률이 높습니다.
+게임공학과의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 317.77이고, 영어 등급의 평균은 4.33입니다. 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 430.10입니다.
+이러한 조건을 고려하면 예비번호 7번이 충원 합격자로 선정될 확률이 높으나, 최종 결정은 입학委员会将决定。根据提供的信息，游戏学专业的录取情况看起来比较乐观。
+如果您还有其他问题或需要更多信息，请告诉我！
+如果您有任何疑问或需要更多帮助，请随时提问！</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 평균 점수와 경쟁률에 대한 정보를 제공하지만, 원본 텍스트의 사실과 일치하지 않는 부분이 많습니다. 예를 들어, 수능 평균 점수가 4.87이라고 언급했으나, 원본 텍스트에서는 4.78이라고 명시되어 있습니다. 또한, 지원자의 수능 성적이 평균보다 낮다고 언급했지만, 원본 텍스트에서는 4.16이 평균보다 높다고 설명하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 여러 부분에서 일치하지 않으며, 특히 수능 성적에 대한 해석이 상반됩니다. 원본 텍스트는 4.16이 평균보다 높다고 명시하고 있지만, 생성된 응답은 이를 반대로 해석하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 추가 합격 가능성에 대한 논의도 포함되어 있습니다. 그러나 일부 정보는 원본 텍스트와 직접적으로 관련이 없거나 과도하게 상세합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 불명확합니다. 특히, 경쟁률과 수능 점수에 대한 설명이 서로 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 여러 부분에서 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 예를 들어, 수능 평균 점수와 지원자의 성적에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 사실성, 일관성, 정확성에서 큰 문제를 보이고 있습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 일부 정보는 부정확하거나 혼란을 줄 수 있습니다. 특히, 수능 성적에 대한 해석이 잘못되어 의미가 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장은 복잡하게 구성되어 있어 혼란을 줄 수 있습니다. 그러나 전반적으로 명확한 의사 전달이 이루어졌습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.6752930283332272</v>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격이 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 게임공학과의 경우, 모집 인원은 3명이며, 지원 인원은 16명으로 경쟁률이 5.33입니다. 수능 평균 점수는 4.87이고, 지원자의 수능 성적이 4.16이라면 평균보다 낮습니다.
+하지만 추가 합격 가능성은 다음과 같이 판단할 수 있습니다:
+1. **경쟁률**: 현재 경쟁률이 높기 때문에 추가 합격 가능성은 낮지만, 불가능한 것은 아닙니다.
+2. **수능 점수**: 평균보다 낮지만, 표준 편차가 0.17로 매우 작으므로, 이 수준에서는 큰 차이가 없습니다.
+따라서, 추가 합격 가능성은 있지만 확실하지 않습니다. 지원을 위해서는 다음과 같은 서류를 준비해야 합니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균이 317.77이고, 표준 편차가 2.51입니다.
+- **영어 등급**: 평균이 4.33이고, 표준 편차가 0.94입니다.
+또한, 동점자 처리 기준을 고려해야 합니다:
+1. **국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자**
+2. **영어교과 전 과목 등급 평균 상위자**
+3. **국어교과 전 과목 등급 평균 상위자**
+결론적으로, 수능 점수가 평균보다 낮지만 경쟁률이 높지 않은 다른 분야에서 우수한 성적을 받았다면 추가 합격 가능성은 있습니다. 하지만 확실하지 않으므로, 최종 결정 전에 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 확인하여 자세한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 평균 성적에 대한 정보를 제공하지만, 최초합격자에 대한 명확한 판단을 내리지 못하고 있습니다. 원문에서 제시된 정보에 기반하여 합격 가능성이 높다고 언급했으나, 생성된 응답은 그 가능성을 부정적으로 해석하고 있어 사실관계에 대한 일관성이 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제시된 정보와 일부 일치하지만, 최초합격자에 대한 해석이 상충합니다. 원문은 3.75의 성적이 평균보다 높아 합격 가능성이 높다고 했으나, 생성된 응답은 이를 부정적으로 해석하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제시된 주제와 관련이 있으며, 경영정보학과의 성적에 대한 질문에 적절히 대응하고 있습니다. 그러나 원문에서 강조된 합격 가능성에 대한 긍정적인 언급이 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 최초합격자에 대한 해석이 원문과 상충하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보에 대한 해석이 다소 부정확합니다. 원문은 3.75의 성적이 합격 가능성이 높다고 했으나, 생성된 응답은 이를 부정적으로 해석하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으며, 주제에 적합한 내용을 포함하고 있습니다. 그러나 최초합격자에 대한 해석이 원문과 다르게 나타나 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장에서 혼란을 줄 수 있는 표현이 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.6960850598912552</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>2024학년도에 경영정보학과의 정시 모집에서 성적 3.75을 가진 학생이 최초합격자로 등록된 경우는 주어진 정보에서 확인되지 않습니다. 
+최초합격자란 해당 학과와 전형에서 가장 높은 점수를 받은 학생을 의미합니다. 하지만 특정 성적을 가진 학생이 최초합격자로 등록되었는지에 대한 명확한 정보가 주어지지 않았습니다.
+따라서, 현재 제공된 정보만으로는 경영정보학과 정시 성적 3.75의 학생이 최초등록자로 가능할 것인지를 판단하기 어렵습니다. 
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 관련 공지사항을 확인하거나, 직접 입학처에 문의하는 것이 좋겠습니다.
+만약 더 많은 정보가 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급과 비교하여 4.2라는 성적이 낮다고 언급한 부분을 명확히 반영하지 않고 있습니다. 또한, 다군 전형에 대한 설명이 추가되었으나, 원본의 핵심 정보를 간과하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 합격 가능성에 대한 결론이 모호하게 표현되어 있어 일관성이 떨어집니다. 원본 텍스트는 합격 가능성이 낮다고 명확히 언급하고 있으나, 생성된 응답은 이를 명확히 반영하지 않고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 평균 등급과의 비교가 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트의 핵심 결론을 명확히 반영하지 않아 약간의 일관성이 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교하여 정확성이 떨어집니다. 4.2라는 성적이 낮다고 명시된 부분이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 특정 세부사항을 놓치고 있어 의미 전달이 완벽하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.7215470112037972</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 경영정보학과의 정시 합격 가능성 판단이 어렵습니다. 경영정보학과의 경우, 일반적으로 다군(일반학생전형)을 통해 모집하며, 수능 성적은 중요한 평가 요소 중 하나입니다.
+다군(일반학생전형)의 경우, 수능 전형성적 산출방법에 따라 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수가 반영됩니다. 따라서 4.2라는 성적이 어느 과목에서 나왔는지, 그리고 다른 과목의 성적은 어떠한지에 따라 합격 가능성은 달라질 수 있습니다.
+특히, 경영정보학과는 일반적으로 국어와 수학이 중요하게 평가되므로, 4.2라는 성적이 국어나 수학에서 나왔다면 좋은 점수일 것입니다. 하지만 다른 과목의 성적도 고려해야 합니다.
+따라서, 최초등록자로 가능할지는 다음과 같은 절차를 통해 확인해보시는 것이 좋습니다:
+1. **입학사정관 제출**: 경영정보학과에 지원하려면 입학사정관 제출이 필요합니다.
+2. **성적 및 기타 자료 준비**: 수능 성적 외에도 학교생활기록부, 자기소개서 등 필요한 서류를 준비해야 합니다.
+3. **온라인 지원 시스템 확인**: 동의대학교 입학처 홈페이지에서 온라인 지원 시스템을 통해 지원 가능성을 확인할 수 있습니다.
+추가적으로, "https://ipsi. deu. ac. kr/main. do" 링크를 클릭하여 동의대학교 입학사정관 제출 및 지원 절차 등을 자세히 확인해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 제공하지 않고, 대신 다른 점수(국어 + 수학 + 탐구의 표준 변환 점수 합)에 대한 정보를 제시하고 있습니다. 이는 원본 텍스트의 핵심 정보를 왜곡하고 있으며, 주어진 성적이 평균보다 낮다는 사실을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 제공합니다. 원본 텍스트는 5.33의 성적이 평균보다 낮다고 명시하고 있지만, 생성된 응답은 이 성적이 평균보다 높다고 주장하고 있습니다. 이는 명백한 불일치입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 입학사정관 평균 점수와 표준 편차에 대한 정보를 제공하지만, 원본 텍스트의 주제와는 다소 관련이 떨어집니다. 원본 텍스트는 합격 가능성에 대한 직접적인 정보를 제공하고 있으며, 생성된 응답은 이를 간접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하는 데 시간이 걸릴 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주제와 관련된 정보가 명확하게 연결되지 않아 독자가 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 정보를 포함하고 있습니다. 5.33의 성적이 평균보다 낮다는 원본의 주장을 반박하는 내용이 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 불일치가 두드러지며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다. 전반적으로 원본 텍스트의 내용을 잘 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 동떨어진 내용이 포함되어 있습니다. 따라서 의미적으로 완전히 일치하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 일부 복잡한 표현이 있어 독자가 혼란스러울 수 있습니다. 그러나 전반적으로는 명확하게 전달됩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0.7274974622352949</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과 일반학생전형에 대한 입학사정관 평균 점수와 표준 편차를 확인해보겠습니다.
+주어진 데이터에서, 경영정보학과의 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"에 대한 정보는 다음과 같습니다:
+- 평균: 399.33
+- 표준 편차: 0.93
+주신 성적이 5.33이므로, 이 점수를 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"에 대입해보겠습니다.
+평균 점수가 399.33이고, 표준 편차가 0.93이므로, 이는 상당히 높은 평균 점수를 가지고 있습니다. 주신 성적 5.33을 "국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합"에 대입하면, 이 점수가 평균보다 상당히 높은 점수입니다.
+따라서, 주신 성적 5.33이 경영정보학과의 입학사정관 평균 점수를 크게 웃도는 수준이라면, 합격 가능성은 매우 높습니다. 하지만, 정확한 합격 가능성을 판단하기 위해서는 해당 전형의 최저 합격 점수나 경쟁률 등을 확인해야 합니다.
+만약 더 자세한 정보가 필요하시다면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 바이오응용공학부의 최초등록자 데이터와 관련된 정보를 제공하지만, "최초등록자로 선발될 가능성은 낮습니다"라는 주장은 원본 텍스트의 긍정적인 합격 가능성과 상충합니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되지 않습니다. 원본 텍스트는 3.33의 성적이 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 가능성이 낮다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부에 대한 정보를 제공하고 있으며, 지원 요건에 대한 설명도 포함되어 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 내용과는 다소 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실과 상충하는 주장을 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석될 수 있는 부분이 있어 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.6771909814419099</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>2024년도에 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)는 정시모집군으로 변경되지 않았습니다. 따라서 현재 정보로는 바이오응용공학부의 최초등록자로 선발될 가능성은 낮습니다.
+정시모집에서 성적 기준을 충족하더라도 학교별 전형요소와 반영비율, 교과성적 등 다양한 요인들이 고려됩니다. 따라서 동의대학교 바이오응용공학부에 지원하기 위해서는:
+1. **성적**: 3.33 정도의 성적이 필요합니다.
+2. **학생부 교과성적**: 학교에서 요구하는 교과성적을 충족해야 합니다.
+3. **면접 및 서류평가**: 일부 전형에서는 면접이나 서류 평가를 거치므로 준비가 필요합니다.
+추가적으로, 동의대학교의 정시모집은 학생부 교과성적, 실기/실적 위주전형인 경우도 있으므로, 해당 전형에 대한 자세한 정보를 확인하시고 지원 계획을 세우는 것이 좋습니다. 더 자세한 내용이 필요하다면 [https://ipsi. deu.ac.kr/main.do](https://ipsi. deu.ac.kr/main.do)로 접속하여 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답에서 방사선학과의 평균 등급을 3.67로 언급했으나, 원본 텍스트에서는 평균 등급이 3.82로 명시되어 있습니다. 또한, 표준 편차에 대한 정보는 원본 텍스트에 포함되어 있지 않으며, "합격 가능성이 낮다"는 원본의 결론과는 상반된 내용을 제시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 특히 평균 등급과 합격 가능성에 대한 해석이 서로 다르며, 이는 일관성을 저해합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과 지원에 대한 정보를 제공하고 있으며, 관련된 다른 학과에 대한 언급도 포함되어 있어 전반적으로 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 동떨어진 부분이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 정보의 흐름이 다소 불연속적입니다. 방사선학과에 대한 정보와 다른 학과에 대한 언급이 자연스럽게 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 방사선학과의 평균 등급에 대한 정보가 잘못되었고, 원본 텍스트의 결론과 상반된 내용을 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서의 평가 결과가 낮아, 전반적인 품질이 떨어집니다. 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 의미와는 다소 다르게 해석되고 있어 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 일부 내용이 복잡하게 느껴질 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.6620601885373312</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>4.4의 등급으로 방사선학과에 지원하는 것은 가능하지만 경쟁률을 고려하면 어려울 수 있습니다. 방사선학과의 경우 평균 등급이 3.67이고, 표준 편차가 0.12로 낮은 등급도 포함되어 있는 것을 볼 수 있습니다.
+방사선학과의 지원 자격을 확인하시고, 자신의 성적과 경쟁률을 고려하여 결정하시면 좋겠습니다. 또한 다른 학과들도 검토해보시는 것이 좋습니다. 예를 들어 호텔·컨벤션경영학과나 외식경영학과 등은 비교적 낮은 경쟁률을 보이고 있어, 성적이 조금 떨어지더라도 지원할 만한 가치가 있을 수 있습니다.
+더 자세한 정보를 얻기 위해서는 https://ipsi. deu. ac. kr/main. do 웹사이트를 참조하시거나 대학 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 방사선학과의 평균 점수와 경쟁률에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보는 누락되어 있습니다. 또한, 2.66이라는 점수가 평균보다 높다는 원본의 주장을 반박하는 내용이 포함되어 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 상충하는 내용을 포함하고 있습니다. 원본에서는 2.66이 평균보다 높다고 언급했으나, 생성된 응답에서는 이를 낮은 점수로 간주하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 정보와 지원자의 점수에 대한 논의를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 주요 포인트인 평균 점수와 합격 가능성에 대한 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원본 텍스트와의 관계가 명확하지 않아 일관된 흐름이 부족합니다. 특히, 2.66 점수에 대한 해석이 원본과 상충하여 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상반되는 주장을 하고 있으며, 평균 점수와 관련된 정보가 부정확합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 문제가 있으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 논의가 포함되어 있지만, 원본 텍스트의 의미와 맥락을 완전히 반영하지 못하고 있습니다. 따라서 의미적으로 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 원본과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.613063427980662</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수는 방사선학과의 경쟁률을 고려하면 상대적으로 낮은 편입니다. 방사선학과의 평균 경쟁률이 약 7.20인 것을 감안할 때, 2.66은 매우 낮은 점수로 보여집니다.
+방사선학과의 지원자들의 평균 점수가 338.76이고 표준 편차가 5.40이라는 것을 고려하면, 2.66은 상당히 낮은 수치입니다. 이는 충분한 경쟁력을 갖추지 못할 가능성이 높습니다.
+따라서, 방사선학과에 지원하려면 더 높은 점수를 얻기 위한 노력이 필요합니다. 만약 이미 2.66이라는 점수를 얻었다면, 다른 학과들 중에서 경쟁률이 낮고 자신에게 맞는 학과를 찾아보는 것이 좋을 것입니다.
+더 자세한 정보나 도움이 필요하시다면, https://ipsi. deu. ac. kr/main. do 를 참조해 보세요.</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 3.66의 성적이 경찰행정학전공의 농어촌 전형에 합격하기 어렵다고 주장하고 있지만, 원본 텍스트에서는 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때 희망을 가져도 될 것이라고 언급하고 있습니다. 따라서, 생성된 응답은 원본 텍스트의 정보와 상충하는 부분이 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 긍정적인 요소를 무시하고, 성적만으로는 합격하기 어렵다고 주장합니다. 이는 원본 텍스트의 내용과 상반되는 정보이므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학전공의 농어촌 전형에 대한 정보를 제공하고 있으며, 관련된 요소들을 언급하고 있습니다. 그러나 원본 텍스트의 주요 포인트인 성적과 경쟁률에 대한 긍정적인 해석을 간과하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트의 논리적 흐름과는 다소 동떨어져 있습니다. 성적과 경쟁률에 대한 긍정적인 해석이 빠져 있어 일관된 주제를 유지하지 못하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학전공의 농어촌 전형에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 사실과는 일치하지 않습니다. 성적이 평균보다 높다는 점을 간과하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있습니다. 그러나 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 경찰행정학전공의 농어촌 전형에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있습니다. 성적에 대한 긍정적인 해석이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5686395926704968</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>3.66의 성적만으로 경찰행정학전공의 농어촌 전형에 합격하기는 어렵습니다. 농어촌 전형은 일반적으로 학생부와 실기, 면접 등 다양한 요소를 종합적으로 평가합니다.
+특히, 경찰행정학전공의 경우 다음과 같은 요소들이 중요하게 고려됩니다:
+1. **학생부 성적**: 이는 주요한 평가 기준 중 하나입니다.
+2. **실기 및 면접**: 실기와 면접에서는 지원자의 역량과 적합성을 종합적으로 판단합니다.
+따라서, 3.66의 성적만으로는 합격하기 어렵습니다. 농어촌 전형에 지원하는 경우 다음과 같은 준비를 하는 것이 좋습니다:
+1. **학생부 성적 향상**: 가능하다면 학생부 성적을 더 높이는 노력을 해보세요.
+2. **실기 및 면접 준비**: 실기를 잘 준비하고, 면접에서는 지원자의 역량과 적합성을 잘 표현할 수 있도록 준비하세요.
+더 자세한 정보는 해당 대학의 입시 홈페이지나 입학관리팀에 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 더 많은 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 예비 25번의 합격 가능성에 대한 일반적인 설명을 제공하지만, 원문에서 언급된 특정 학과 목록을 포함하지 않고 있습니다. 따라서 일부 정보가 누락되어 있어 점수를 낮게 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일관된 내용을 포함하고 있지만, 예비합격 점수에 대한 설명이 원문에서 제공된 특정 학과에 대한 정보와는 다소 상충할 수 있습니다. 예비 25번의 점수가 높은 점수일 가능성이 있다고 언급했으나, 원문에서는 특정 학과에 대한 합격 가능성을 강조하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있으며, 예비합격 점수와 관련된 정보를 제공합니다. 그러나 원문에서 제시된 특정 학과 목록에 대한 언급이 없기 때문에 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어지는 부분이 있어 점수를 낮게 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 예비합격 점수에 대한 일반적인 설명을 제공하지만, 원문에서 제공된 구체적인 정보(특정 학과 목록 등)가 누락되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원문과 관련된 내용을 다루고 있으나, 정보의 누락과 일관성 부족으로 인해 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 적절하게 부합하지만, 특정 학과에 대한 언급이 없기 때문에 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보를 제공합니다. 그러나 일부 문장이 복잡하게 느껴질 수 있어 점수를 낮게 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5985939879857756</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>25번의 예비합격 점수는 높은 점수일 가능성이 있습니다. 그러나 정시 일반학생전형의 경우 수능 성적과 학교별 입학사정관 평가 등이 반영되므로, 예비합격 점수가 높더라도 최종 합격 여부는 여러 요소에 따라 결정됩니다.
+특히, 다군(일반학생전형)의 경우 수능 성적이 100% 반영되며, 각 모집단위별 입학사정관 평가도 이루어지므로, 예비합격 점수가 높더라도 합격 확률은 존재합니다. 하지만, 경쟁이 매우 치열한 만큼 낮은 확률일 수는 있습니다.
+더 자세한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 학교별로 제공되는 면접 준비 가이드와 같은 자료들을 참고하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 법경찰행정학부에 대한 정보가 잘못된 부분이 있으며, 해당 학부가 존재하지 않는다는 사실을 무시하고 있습니다. 또한, 수능과 학생부종합전형을 고려해야 한다고 언급했지만, 이는 주어진 정보와 일치하지 않습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 법경찰행정학부가 존재한다고 주장하는 것은 원본 텍스트와 모순됩니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 동의대학교의 입학 전형에 대한 정보를 제공하지만, 법경찰행정학부에 대한 잘못된 정보로 인해 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 문법적으로는 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 이해를 방해할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답의 구조는 비교적 일관되지만, 법경찰행정학부의 존재 여부에 대한 모순으로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 응답에서 제공된 정보는 사실과 다르며, 법경찰행정학부의 존재에 대한 잘못된 주장을 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 응답의 질이 낮습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 어느 정도 적절하지만, 잘못된 정보로 인해 전체적인 맥락이 흐트러집니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.7125460737052511</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 지원하려면 수능과 학생부종합전형을 고려해야 합니다. 하지만 주어진 정보만으로는 정확한 평균 성적을 예측하기 어렵습니다. 
+법경찰행정학부는 인문사회과학대학의 일부이며, 이에 따라 수능 반영 영역은 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)로 구성되며 각 영역은 25%씩 반영됩니다.
+학생부종합전형에서는 평균 성적이 중요하지만, 학생부 교과성적, 특기사항 등도 고려됩니다. 정시 모집인원이 적고 경쟁률이 높아서 안정권에 들기 위해서는 90점 이상의 국어, 수학, 영어 등급을 받는 것이 바람직합니다.
+하지만 이는 예측이며, 실제 입학 가능성을 결정하는 요소는 다양합니다. 따라서 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 필요하다면 "https://ipsi. deu. ac. kr/main. do" 링크를 참조하여 더 자세한 정보를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 아동학과의 평균 등급과 관련된 정보가 잘못 해석되었습니다. 원본 텍스트에서는 아동학과의 평균 등급이 6.33이고, 수능 4개 영역 등급 평균이 7.08이라고 명시되어 있습니다. 그러나 생성된 응답에서는 영어 등급 평균이 4.28로 언급되며, 이는 원본 텍스트와 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 아동학과의 평균 등급과 관련된 정보가 상충합니다. 또한, 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 지원자의 정시 산출 등급과 관련된 정보를 제공하며, 합격 가능성에 대한 분석을 포함하고 있습니다. 그러나 원본 텍스트의 주제와는 약간의 차이가 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 아동학과의 평균 등급과 관련된 정보가 잘못되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 대체로 일치하지만, 일부 정보가 잘못 해석되어 있어 의미의 적절성이 약간 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.6081656782222875</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 모집 정보를 기준으로, 지원자의 정시 산출 등급이 5.33일 때 합격 가능성은 다음과 같이 판단됩니다.
+1. **모집 인원 및 지원 인원**: 
+   - 모집 인원: 20명
+   - 지원 인원: 48명
+   - 경쟁률: 약 2.4 : 1 (48 / 20)
+2. **성적 정보**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 357.69이고, 표준 편차는 14.08입니다.
+   - 영어 등급의 평균은 4.28이며, 표준 편차는 1.03입니다.
+   - 수능 4개 영역 등급의 평균은 5.67이고, 표준 편차는 0.91입니다.
+3. **성적 분석**:
+   - 지원자의 정시 산출 등급이 5.33일 때, 이 점수는 평균보다 약간 낮은 수준입니다.
+   - 그러나 표준 편차를 고려하면, 이 점수가 평균에서 약 0.91표준편차 내에 위치합니다.
+4. **경쟁률 및 합격 인원**:
+   - 경쟁률이 약 2.4 : 1이며, 충원 합격자는 20명입니다.
+   - 이는 지원자 중 상당수의 성적이 높은 편이므로, 평균보다 약간 낮은 점수가 합격 가능성은 있지만, 확실하지 않습니다.
+따라서, 정시 산출 등급이 5.33일 때 동의대학교 보육가정상담학과에 합격할 수 있는지는 지원자의 성적 외에도 경쟁률과 모집 인원 등을 고려해야 합니다. 평균보다 약간 낮은 점수이지만, 표준 편차를 고려하면 합격 가능성은 있으나 확실하지 않습니다. 정확한 합격 가능성을 확인하려면 동의대학교 입학처에 문의하거나, 해당 전형의 최종 합격자 명단을 참조하는 것이 좋습니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 확인해 보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 충원 합격자 발표와 관련된 정보의 일부를 포함하고 있지만, 동점자 처리 기준에 대한 언급은 원본 텍스트에 포함되어 있지 않은 정보입니다. 따라서 일부 사실이 정확하지 않거나 원본과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 동점자 처리 기준에 대한 추가 정보는 원본 텍스트와 일치하지 않으며, 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 동점자 처리 기준에 대한 정보는 원본 텍스트의 핵심 내용과는 다소 벗어나 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 동점자 처리 기준에 대한 언급이 원본 텍스트와의 연결성을 약간 떨어뜨립니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 동점자 처리 기준과 같은 추가 정보는 원본 텍스트에 명시되어 있지 않으므로 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 동점자 처리 기준에 대한 언급이 다소 부적절하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5083721638797363</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담 충원 합격 3차에서 예비 12번을 받으셨다면, 합격 가능성은 아직 불확실합니다. 동점자 처리기준에 따라 순위별로 처리되며, 현재 제공된 정보만으로는 정확한 판단이 어렵습니다.
+동점자 처리 기준을 확인해보겠습니다:
+- 1순위: 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+- 2순위: 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+현재 제공된 정보만으로는 정확한 순위를 알 수 없으므로, 합격 가능성은 아직 불확실합니다. 
+추가적인 정보와 동점자 처리 기준을 확인하시거나, 입학관리팀에 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 https://ipsi. deu. ac. kr/main. do 에 접속하여 자세한 내용을 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75라는 점수가 좋은 점수라고 언급하고 있지만, 유아교육학과의 평균 점수인 4.18과 비교했을 때 지원이 어려울 것이라는 원문 내용과는 다소 상충하는 부분이 있습니다. 또한, 평균 4.85와 표준 편차 0.37에 대한 정보는 원문에 포함되어 있지 않으므로, 사실적 정확성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 지원할 수 있다고 언급하지만, 원문에서는 4.75의 성적으로는 지원하기 어려울 것이라고 명시하고 있습니다. 이로 인해 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 대한 정보와 지원 가능성에 대해 다루고 있어 관련성이 높지만, 원문에서 제공된 구체적인 데이터와 비교할 때 일부 정보가 누락되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 차이로 인해 일부 부분에서 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답에서 제공된 평균 점수와 표준 편차는 원문에 명시된 내용과 일치하지 않으며, 유아교육학과에 대한 지원 가능성에 대한 정보가 정확하지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원문과의 차이로 인해 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.7998306641469642</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 등급은 상당히 좋은 점수입니다. 평균이 4.85이고 표준 편차가 0.37인 전체 수험생 대비로 보면, 4.75는 약간 낮은 평균보다 조금 아래에 위치한 점수입니다.
+유아교육학과의 경우, 지원 인원이 많고 경쟁률이 높습니다. 현재 제공된 데이터를 바탕으로 유아교육학과의 지원 인원은 29명이고, 모집 인원은 6명입니다. 따라서 이는 매우 높은 경쟁률을 의미합니다.
+4.75라는 등급으로 유아교육학과에 지원하는 것은 가능하지만, 경쟁이 치열할 것입니다. 평균적으로 4.85를 기록한 학생들이 대부분 지원하므로, 4.75는 약간 낮은 점수로 보고 있습니다.
+따라서 유아교육학과에 지원하는 것은 가능하지만, 경쟁률이 높기 때문에 성공적인 결과를 얻으려면 추가적인 준비가 필요할 것입니다. 예를 들어, 면접 준비나 서류 작성 등에서 우위를 점해야 할 수 있습니다.
+더 자세한 정보는 https://ipsi. deu. ac. kr/main. do 를 참조하시거나 대학에 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 4개 영역 등급 평균을 5.04로 제시하고 있지만, 원본 텍스트에서는 아동학과의 수능 4개 영역 등급 평균이 7.08이라고 명시되어 있습니다. 이로 인해 사실관계에 큰 오류가 발생하였습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 원본 텍스트는 4.16의 등급이 아동학과의 평균 등급보다 높다고 언급하지만, 생성된 응답은 4.16이 낮다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 보육가정상담학과의 합격 가능성에 대한 정보를 포함하고 있습니다. 그러나 일부 정보는 원본 텍스트와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 약해 일관된 흐름이 부족합니다. 특히, 수능 등급 평균에 대한 정보가 원본과 다르기 때문에 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 특히 수능 4개 영역 등급 평균에 대한 정보가 잘못되었습니다. 이로 인해 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실관계, 일관성, 정확성에서 큰 문제를 가지고 있어 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 질문의 맥락에 맞는 정보를 제공하고 있지만, 원본 텍스트와의 차이로 인해 의미적으로 완벽하게 적절하다고 보기는 어렵습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0.6887348212739882</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>4.16의 등급을 가지고 보육가정상담학과 일반학생전형에 지원하셨다면, 합격 가능성은 있습니다만 확실하지 않습니다. 해당 전형의 수능 4개 영역 등급 평균이 5.04이며 표준 편차는 0.25로 비교적 높습니다.
+수능 4개 영역 등급의 평균이 5.04이고 표준 편차가 0.25인 경우, 대부분의 지원자가 4.8 이상의 등급을 가지고 있습니다. 따라서 4.16은 약간 낮은 수치로, 경쟁률과 함께 고려해야 합니다.
+추합까지 생각한다면, 학생부교과 평균 등급도 중요합니다. 보육가정상담학과의 경우, 학생부교과 평균 등급이 3.12입니다 (영어는 따로 반영되지 않음). 따라서 학생부교과 점수와 함께 고려해야 합니다.
+결론적으로, 4.16의 수능 등급만으로는 확실한 합격을 보장할 수 없습니다. 학생부교과 점수와 함께 평균 등급을 충족하는지 확인하고, 경쟁률을 고려하여 최종 판단해야 합니다.
+더 자세한 정보를 얻기 위해서는 공식 홈페이지 (https://ipsi. deu.ac.kr/main.do)를 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 다른 학과에 대한 정보와 관련된 내용은 소스 텍스트에 포함되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트와 일치하는 부분이 있지만, 다른 학과에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 소스 텍스트는 소프트웨어융합학과에 대한 정보만을 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 깊으며, 질문에 대한 답변을 잘 다루고 있습니다. 정시 지원 불가능성에 대한 정보는 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 추가된 정보가 소스 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 사실을 잘 반영하고 있지만, 다른 학과에 대한 정보는 소스 텍스트에 명시되어 있지 않으므로 정확성에서 약간의 차이가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 소스 텍스트의 맥락과 잘 맞아떨어집니다. 그러나 추가된 정보가 맥락에서 벗어날 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 다만, 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5513051866560648</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어융합학과는 정시모집이 이루어지지 않습니다. 따라서 정시로 지원하는 것은 불가능합니다.
+그러나, 전공적합성 평가를 받기 위해 다른 학과의 정시 모집을 통해 지원할 수 있습니다. 예를 들어, 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)와 같은 관련 학과를 지원하면 됩니다.
+2024학년도에 소프트웨어공학부의 경우 평균 수능 4개 영역 등급이 4.87으로, 표준 편차가 0.13입니다. 이는 대체로 중등 이상의 수능 성적을 보여주어야 합니다.
+따라서, 소프트웨어융합학과를 정시로 지원하려면 관련 학과의 평균 수능 등급 정도 혹은 그 이상의 수능 점수를 받아야 할 것으로 추정됩니다. 하지만 이는 단순 추측이며, 실제 지원 시에는 해당 학과의 최신 모집요강을 확인하여 정확한 정보를 얻어야 합니다.
+더 자세한 정보를 원하시면 "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조해보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 서류 평가와 면접 평가의 비중에 대한 구체적인 수치를 제공하고 있지만, 원본 텍스트에서는 그러한 비중에 대한 언급이 없습니다. 또한, 서류 준비 시 주의해야 할 사항들이 추가되었으나, 원본 텍스트의 핵심 정보인 서류 평가와 면접 고사에 대한 내용이 일부 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 바탕으로 하고 있지만, 서류 평가와 면접 평가의 비중에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트는 단순히 평가 방식에 대한 설명만을 제공하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 비중에 대한 정보가 추가되어 있어 약간의 불일치가 있습니다. 그러나 서류 준비 시 주의사항은 관련된 정보로 볼 수 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 비중에 대한 구체적인 수치가 추가되어 있어 정확성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 사실성과 일관성에서 다소 부족함이 있습니다. 전반적으로 원본 텍스트와의 일치도가 낮습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 비중에 대한 정보가 추가되어 있어 약간의 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.6682486587843077</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>《학생부종합》 평가에서 소프트웨어융합학과의 경우, 서류평가와 면접평가의 비중이 각각 60%와 40%입니다. 따라서 서류평가에서는 학생부 내용을 매우 중요하게 보게 됩니다.
+서류 준비 시 주의해야 할 사항은 다음과 같습니다:
+1. **진로 탐색 활동**: 지원 동기와 진로 탐색 과정을 자세히 기재하세요.
+2. **창의적 체험활동**: 동아리 활동, 진로활동 등에 대한 세부 내용을 정확하게 기재하세요.
+3. **교과 성적**: 수능 성적이 중요하므로 이를 잘 보여주는 서류를 준비하세요.
+따라서 면접에서는 학업역량과 전공적합성에 대해 질문이 많이 올 것으로 예상됩니다. 지원 동기와 입학 후 계획, 고교 생활 중 어려움과 해결 방안 등을 미리 준비해두세요.
+추가로, 《학생부종합》 평가에서는 학생부 내용의 진위 여부를 확인하기 위해 면접에서 작성된 질문지를 활용합니다. 따라서 서류와 면접 답변이 일관되게 보여야 합니다.</t>
+        </is>
+      </c>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 평균 등급 4.12와 4.08의 비교를 포함하고 있지만, "4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다"라는 부분이 잘못되었습니다. 4.08은 4.12보다 낮습니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 4.08이 평균보다 "약간 높은 수준"이라는 잘못된 진술로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬우나, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 더 매끄럽게 연결될 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답의 일부 정보는 정확하지만, 4.08이 평균보다 "약간 높은 수준"이라는 잘못된 진술로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 응답이 적절하지만, 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 잘못된 정보로 인해 의미 전달이 약간 왜곡되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.741848070715543</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수는 동의대학교 소프트웨어공학부의 평균 수능 4개 영역 등급인 4.12보다 약간 낮습니다. 하지만 표준 편차가 0.32이므로, 이 정도 차이는 충분히 가능합니다.
+동의대학교 소프트웨어공학부의 경우:
+- 평균 수능 4개 영역 등급: 4.12
+- 표준 편차: 0.32
+4.08은 약간 낮지만, 표준 편차 내에 있으므로 최초합격 가능성은 있습니다.
+하지만 경쟁률이 높아서 확실한 것은 아니며, 다른 요인들(예: 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 등)도 고려해야 합니다. 정확한 판단을 위해서는 동의대학교 소프트웨어공학부의 최종합격자들의 성적 분포를 확인해 보시는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면, https://ipsi.deu.ac.kr/main.do 에 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과의 영어 등급 평균이 3.77이라는 정보는 출처 텍스트에 명시되어 있지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 출처 텍스트와 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 출처 텍스트는 합격 등급 정보가 없다고 명시하고 있지만, 생성된 응답은 특정 등급을 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대한 답변을 시도하지만, 제공된 정보가 출처 텍스트와 관련이 없고, 주제에서 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 출처 텍스트와의 관련성이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 출처 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 이는 정확성 점수를 낮추는 요인입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받았습니다. 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 출처 텍스트의 맥락과 일치하지 않는 정보가 포함되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장 구조를 가지고 있지만, 내용의 부정확성으로 인해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6233676557302538</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>2024학년도에 소프트웨어공학부의 영어 등급 평균은 3.77입니다. 이는 평균 5등급을 상당히 웃돌고 있는 수치입니다.
+따라서, 평균 5등급으로는 소프트웨어융합학과에 지원하기 어렵다고 볼 수 있습니다. 더 낮은 등급이나 다른 요인들을 고려해야 할 것입니다.
+만약 자세한 정보가 필요하다면, 해당 대학의 입시 홈페이지(https://ipsi.deu.ac.kr/main.do)를 참조해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 신소재공학과의 평균 점수와 표준 편차에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제공된 정보와는 다릅니다. 원본 텍스트는 수능 4개 영역 등급에 대한 정보만을 제공하고 있으며, 영어 점수에 대한 언급은 없습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 새로운 정보를 추가하고 있습니다. 원본 텍스트는 수능 4개 영역 등급에 대한 정보만을 제공하는 반면, 생성된 응답은 영어 점수에 대한 분석을 포함하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트에서 제공된 정보와는 다른 방향으로 나아가고 있습니다. 원본 텍스트는 합격 가능성에 대한 판단을 제공하는 반면, 생성된 응답은 영어 점수에 대한 분석에 초점을 맞추고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 연결이 약해져 있습니다. 원본 텍스트의 정보와 관련된 내용을 다루지 않기 때문에 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 수능 4개 영역 등급에 대한 정보만을 제공하는데, 생성된 응답은 영어 점수에 대한 분석을 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 부족하며, 사실성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 내용을 포함하고 있습니다. 따라서 의미적으로 적절성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용은 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.577764230971108</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 점수는 동의대학교 신소재공학과에서 지원하는 데 어느 정도의 기회가 있는지 판단하기 위해서는 해당 대학의 평균 및 표준 편차를 고려해야 합니다.
+현재 제공된 데이터에서는 동의대학교 신소재공학과에 대한 정보가 없습니다. 하지만 일반적으로 동의대학교 신소재공학과의 지원자들의 영어 점수 평균이 5.00이고, 표준 편차가 0.81이라는 것을 알 수 있습니다.
+4.28은 이 평균보다 약간 낮습니다. 그러나 표준 편차를 고려하면, 4.28은 평균에서 약 -0.79 표준편차 정도 떨어져 있는 것입니다. 이는 상대적으로 좋은 점수일 수 있지만, 최종 합격 여부는 다른 요인들(예: 국어, 수학 등)과 함께 고려되어야 합니다.
+따라서 4.28이라는 점수만으로는 확실한 결론을 내리기 어렵습니다. 동의대학교 신소재공학과의 전체 지원자의 성적 분포와 기타 합격 기준 등을 확인하여 더 정확한 판단을 내리는 것이 좋겠습니다.
+더 자세한 정보를 얻으시려면, "https://ipsi. deu. ac. kr/main. do" 웹사이트를 참조하시거나 동의대학교 입학처에 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 원문에서 명시된 "자기소개서가 필요없습니다"라는 사실을 정확히 반영하지 않고 있습니다. 대신, 일반적인 학생 선발 과정에 대한 설명을 포함하고 있어 원문과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 포함하고 있으며, "자기소개서가 필요없다"는 원문의 핵심 내용을 무시하고 있습니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 수능 일반학생전형에 대한 정보를 제공하지만, 원문에서 질문한 내용과는 다소 벗어난 정보가 포함되어 있습니다. 따라서 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원문과의 연결이 부족하여 논리적인 흐름이 다소 약합니다. 따라서 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정확한 사실을 반영하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 기록하고 있으며, 원문과의 일치성 및 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문의 핵심 내용을 반영하지 않아 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 원문과의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.4372419793618452</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>一般的学生选拔考试中，通常不需要提交个人陈述书。根据提供的信息，“다군(일반학생전형)”主要基于学生的学业成绩（如国语、数学、英语和科学的标准分数）以及其他因素进行评估。
+因此，在准备“다군(일반학생전형)”时，重点应放在：
+1. 准备好你的学业成绩单。
+2. 确保你符合该选拔类型的资格要求。
+3. 如果有需要补充的其他材料（如推荐信等），请按照具体招生简章的要求准备。
+如果有更详细的信息或具体的招生简章内容，请参考相关链接或直接访问学校官网以获取最准确的信息。如果还有疑问，可以访问“https://ipsi. deu. ac. kr/main. do”进行咨询。</t>
+        </is>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 점수 4.5에 대한 합격 가능성을 여러 요인에 따라 설명하고 있으며, 추가 모집에 대한 정보도 제공하고 있습니다. 그러나 특정 학과의 평균 점수와 경쟁률에 대한 정보는 다소 구체적이지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 특정 학과의 예시를 들며 다소 다른 정보를 제공하고 있습니다. 예를 들어, 한의예과의 경쟁률과 모집 인원에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집에 대한 질문에 직접적으로 답변하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 합격 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다. 그러나 일부 부분에서 연결이 매끄럽지 않을 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 수능 점수와 관련된 정보에 대해 정확하게 설명하고 있지만, 특정 학과의 평균 점수와 경쟁률에 대한 정보는 원본 텍스트와 일치하지 않거나 구체적이지 않아 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 다만, 일부 세부 사항에서 약간의 차이가 있을 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.7312311975699778</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 좋은 성적입니다. 하지만 추가 모집에 합격할 확률은 여러 요인에 따라 달라질 수 있습니다.
+1. **경쟁률**: 각 단과대학의 경쟁률이 매우 중요합니다. 예를 들어, 한의예과(수학&lt;미적분/기하&gt;)는 8.00이라는 높은 경쟁률을 보이고 있으므로, 이와 같은 수준의 경쟁률에서 합격하기 위해서는 점수가 상당히 높아야 합니다.
+2. **모집인원**: 추가 모집에 대한 모집인원도 중요한 요소입니다. 예를 들어, 한의예과(수학&lt;미적분/기하&gt;)는 11명을 모집하고 지원자가 88명이므로 경쟁률이 높습니다.
+3. **성적 분포**: 각 단과대학별로 성적이 어떻게 분포되어 있는지 확인해야 합니다. 예를 들어, 한의예과(수학&lt;확률과통계&gt;)는 평균 점수가 400.24이고 표준 편차가 0.79이므로, 4.5라는 수능 점수만으로 충분히 합격할 확률은 낮을 것입니다.
+따라서, 4.5의 수능 점수로 추가 모집에 합격하기 위해서는:
+- **더 높은 수능 점수**를 얻거나
+- **다른 단과대학이나 모집단위**에서 지원하는 것이 좋을 것입니다.
+추가적으로, 동의대학교의 공과대학에서는 264.18에서 396.29까지의 평균 점수가 있으며, 이 중 일부는 4.5와 비교해볼 만한 수준입니다. 따라서, 특정 단과대학이나 모집단위를 선택하여 지원하는 것이 좋을 것입니다.
+추가 정보를 원하시면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해 보시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 정시 모집 등급에 대한 구체적인 정보를 제공하지 않고 있으며, 원본 텍스트의 평균 등급에 대한 정보도 누락되어 있습니다. 그러나 원본 텍스트의 링크를 언급하고 있어 일부 사실을 반영하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트와 일치하는 부분이 있지만, 신소재공학과의 평균 등급에 대한 정보가 누락되어 있어 일관성이 떨어집니다. 원본 텍스트의 내용을 완전히 반영하지 못하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 정시 모집에 대한 질문에 답변하고 있으며, 관련 링크를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 정보는 포함되어 있지 않아 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬운 문장으로 구성되어 있습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성은 없습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 정시 모집 등급에 대한 구체적인 정보를 제공하지 않으며, 원본 텍스트의 평균 등급에 대한 정보도 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 긍정적인 요소가 있지만, 정보의 부족과 일관성 문제로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 적절하게 반응하고 있으며, 관련 링크를 제공하여 추가 정보를 찾을 수 있도록 안내하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.5498470062179081</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>2024년도에 동의대학교 신소재공학과(신소재공학부에서 분리됨)의 정시 모집 등급은 제공된 정보로는 확인되지 않았습니다. 관련 정보가 추가되면 알려드리겠습니다. 더 자세한 내용을 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하시거나 동의대학교 입학처에 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 부족하고, 447점보다 높았다는 언급이 있지만, 실제로는 378.15점이 평균 점수라는 사실을 간과하고 있습니다. 따라서, 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보와 일치하지 않으며, 예측에 대한 불확실성을 강조하고 있습니다. 이는 원본 텍스트의 명확한 정보와 일치하지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 주제와 관련이 있지만, 원본 텍스트의 핵심 정보인 평균 점수에 대한 명확한 언급이 부족합니다. 그러나 여전히 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결된 구조를 가지고 있으며, 정보가 일관되게 제시되고 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 평균 점수에 대한 정확한 정보를 제공하지 않으며, 예측에 대한 불확실성을 강조하고 있지만, 원본 텍스트의 사실과는 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 사실성과 일관성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트의 핵심 사실을 간과하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 언어로 작성되어 있습니다. 다만, 일부 문장은 복잡할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.7609280093100108</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 특정 단과대학의 표준 변환 점수는 작년에 비해 약간의 변화가 있을 수 있습니다. 하지만 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다는 정보만으로는 확실한 예측을 하기 어렵습니다.
+현재 제공된 데이터로는 각 단과대학별 표준 변환 점수와 그에 대한 평균 및 표준 편차가 있습니다. 이들 값을 바탕으로 작년의 점수가 현재의 점수로 환산될 가능성은 있지만, 정확한 예측을 위해서는 더 많은 정보가 필요합니다.
+예를 들어, 작년 신소재공학과의 최종 평균 점수가 448점이었다면, 현재 표준 변환 점수와 비교해볼 수 있습니다. 하지만 작년의 데이터만으로는 확실한 예측을 하기 어렵습니다.
+더 정확한 정보를 얻으려면 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나, 직접 입학처에 문의하는 것이 가장 좋습니다. 입학처에서는 최신 정보와 예측을 제공해 주실 것입니다.
+따라서, 현재의 점수가 작년보다 약간 낮은 경우에도 작년과 동일한 결과를 얻을 가능성은 있지만, 확실하지 않습니다. 더 많은 데이터와 정보가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트는 4.1~4.2 등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 합격 가능성이 높다고 언급하고 있지만, 생성된 응답은 합격 가능성이 낮다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 성적이 평균보다 높다고 하였으나, 생성된 응답은 반대로 낮은 가능성을 제시하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본의 핵심 내용을 왜곡하여 전달하고 있습니다. 전형 요소와 서류 준비에 대한 정보는 유용하지만, 원본의 주제와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 잘 연결되어 있지 않아 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 원본의 성적 비교 결과를 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히 합격 가능성에 대한 해석이 잘못되었습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.5997279769165984</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>4.3 등급의 수능 성적이 4.1~4.2 정도로 변환될 경우, 신소재공학부 일반학생전형에 합격할 확률은 낮아 보입니다. 하지만 정시 모집과 전형 요소 반영 비율을 고려하면 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **서류 준비**: 지원 자격을 갖추고, 필요한 서류들을 미리 준비합니다.
+2. **면접 대비**: 면접 비중이 30%인 경우, 면접 준비도 철저히 합니다.
+3. **전형 요소 반영**: 서류 평가 비중이 70%인 경우, 지원자의 학생부 교과 성적, 특기사항 등 전반적인 자질을 잘 보여줄 수 있도록 합니다.
+신소재공학부의 경우 경쟁률이 높고, 일반적으로 고등학교 성적이 중요한 요인이므로, 4.1~4.2 정도로 변환된다면 합격 가능성은 낮아 보입니다. 하지만 최종 결정은 해당 대학에서 발표하는 정시 모집 결과에 따라 결정됩니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속하여 공식 홈페이지의 전형 안내 및 지원 절차를 확인하시거나, 대학 입학처에 문의하시는 것이 좋습니다.
+이 정보가 도움이 되길 바랍니다!</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대학교 인공지능학과의 지원 방법과 필요한 점수에 대한 정보를 제공하지만, 원본 텍스트에 명시된 평균 점수와 표준 편차와 같은 구체적인 수치를 포함하지 않아 일부 사실이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 구체적인 성적 수치가 누락되어 있어 일관성이 떨어집니다. 예를 들어, 원본 텍스트의 평균 점수와 표준 편차를 언급하지 않았습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 인공지능학과에 지원하기 위한 정보와 관련된 내용을 다루고 있어 관련성이 높지만, 원본 텍스트의 구체적인 성적 정보를 포함하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있어 유창성이 뛰어납니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수 항목이 명확하게 나열되어 있어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 지원 방법과 점수 계산에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 성적 수치가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하고 관련성이 높지만, 사실성과 정확성에서 다소 부족하여 중간 정도의 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 맥락에 적합한 의미를 전달하고 있지만, 구체적인 성적 수치가 누락되어 있어 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0.8169008407951853</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과로 지원하려면, "나군 수능(일반학생전형)"을 통해 지원할 수 있습니다. 이 전형에서는 다음과 같은 점수를 반영합니다:
+1. **국어 표준점수**
+2. **수학 표준점수** (미적분 또는 기하 응시자인 경우, 수학 표준점수 x 0.1 가산)
+3. **영어 등급점수**
+4. **탐구 표준점수**
+예를 들어, 아래와 같은 성적이 필요할 수 있습니다:
+- **국어**: 104점
+- **수학(미적분)**: 108점 (기하 응시자인 경우, 108 x 0.1 = 10.8 추가)
+- **영어**: 4등급 (115점)
+- **탐구**: 47점
+따라서, 총합산 점수는 다음과 같이 계산될 수 있습니다:
+\[ \text{총합산 점수} = 104 + 108 + 115 + 47 = 374 \]
+이 성적은 인공지능학과로 지원하기 위한 기본적인 점수입니다. 하지만, 실제 합격선은 매년 변동되므로, 최신 정보를 확인하는 것이 좋습니다.
+더 자세한 정보나 추가 질문이 있으시다면, "https://ipsi. deu. ac. kr/main. do"로 접속하여 확인해보세요.</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 성적 기준에 대한 정보가 부족하고, 제공된 성적(5.27)과 관련된 구체적인 학과의 평균 성적 및 표준 편차에 대한 언급이 없습니다. 또한, 응답에서 제시된 평균과 표준 편차는 원본 텍스트와 일치하지 않으며, 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일관성이 부족합니다. 원본 텍스트는 각 학과의 평균 성적과 표준 편차를 제공하며, 5.27 성적이 충원 합격 가능한 학과를 명시하고 있습니다. 그러나 생성된 응답은 이러한 정보를 제공하지 않고, 다른 기준을 사용하여 성적을 평가하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 성적에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트에서 요구하는 구체적인 정보(충원 합격 가능 학과)에 대한 언급이 부족합니다. 따라서 관련성은 있지만, 핵심적인 정보가 결여되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 일부 문장은 다소 복잡하게 표현되어 있어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트의 구조와 흐름을 따르지 않기 때문에 일관성이 떨어집니다. 정보의 흐름이 원본 텍스트와 다르게 전개되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제공된 평균과 표준 편차는 원본 텍스트의 정보와 일치하지 않으며, 이는 정확성에 큰 영향을 미칩니다. 또한, 성적 평가에 대한 정보가 불완전하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 품질 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성에서 부족함이 있으며, 전반적으로 원본 텍스트의 요구 사항을 충족하지 못합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트의 맥락과는 다소 차이가 있습니다. 따라서 의미적으로 적절하다고 볼 수 있지만, 완전한 일치는 아닙니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으며, 명확한 표현이 사용되었습니다. 그러나 일부 복잡한 문장은 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.5590292905451183</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 364.00이고, 표준 편차는 37.69입니다.
+당신이 제시한 성적인 5.27을 기반으로 보면, 이 점수는 평균보다 약간 높습니다. 그러나 표준 편차를 고려하면, 이 점수는 평균에서 약 1.08 표준편차 이상 떨어져 있습니다.
+따라서, 이 성적만으로 충분히 추합을 보장받기는 어렵다고 볼 수 있습니다. 그러나 경쟁률과 지원 인원 등을 고려하면, 특정 학과에서는 여전히 가능성이 있을 수 있습니다. 예를 들어, 경쟁률이 낮은 학과나 지원 인원이 적은 학과에서 더 높은 가능성은 있을 것입니다.
+추합 가능성에 대한 정확한 판단을 위해서는 해당 학과의 모집인원, 지원 인원, 경쟁률 등을 고려해야 합니다. 또한, 영어 등급이나 수능 4개 영역 등급 등의 성적도 함께 고려해야 할 것입니다.
+더 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트 (https://ipsi. deu.ac.kr/main.do)를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어공학부의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있지만, 일부 수치(예: 영어 등급 평균 3.30, 수능 4개 영역 등급 평균 4.12 등)는 원본 텍스트와 일치하지 않거나 출처가 불분명합니다. 따라서 정확성에서 다소 부족함이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가된 정보(모집 인원, 경쟁률 등)는 원본 텍스트에 포함되어 있지 않아 일관성이 떨어집니다. 또한, 정시 성적 4.2에 대한 해석이 원본과 다소 다르게 나타나고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 소프트웨어공학부에 대한 합격 가능성에 대한 정보를 포함하고 있습니다. 그러나 일부 추가 정보는 질문의 핵심과는 다소 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 흐름이 약간 방해받을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답의 일부 수치와 정보는 원본 텍스트와 일치하지 않으며, 이는 정확성에 영향을 미칩니다. 특히, 평균 등급과 관련된 수치가 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 전반적으로 응답은 유용한 정보를 제공하지만, 사실성과 일관성에서 부족함이 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용으로 구성되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.7139099448494101</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>정시 성적 4.2인데 동의대학교 소프트웨어공학부 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부에 대한 지원 자료를 바탕으로 분석해보겠습니다.
+소프트웨어공학부의 경우, 모집 인원이 30명이고 지원 인원이 146명으로 경쟁률이 4.87입니다. 또한 충원 합격자는 63명이며, 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이고, 영어 등급의 평균은 3.30입니다.
+당신이 정시 성적 4.2라면, 이는 수능 4개 영역 등급에서 4.2를 받았을 때와 비슷한 점수를 의미합니다. 수능 4개 영역 등급의 평균은 4.12이고, 표준 편차가 0.32입니다.
+정시 성적 4.2는 대략 수능 4개 영역 등급에서 4.2~4.5 사이를 의미할 것입니다. 이 점수대에서는 평균보다 약간 낮은 수준이지만, 표준 편차가 작아서 평균과 비교해볼 때 상당히 가까운 위치에 있습니다.
+따라서, 정시 성적 4.2로 소프트웨어공학부에 지원한다면 합격 가능성은 높다고 볼 수 있습니다. 하지만 최종 합격 여부는 여러 요인에 따라 달라질 수 있으므로, 공식적인 합격 기준을 확인하시고 추가적으로 준비하시는 것이 좋겠습니다.
+더 자세한 정보나 다른 질문이 있으시면 https://ipsi. deu. ac. kr/main. do를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 평균 성적과 관련된 정보를 제공하지만, 원본 텍스트에서 언급된 영어 등급 평균과 수능 4개 영역 등급 평균에 대한 정보는 포함되어 있지 않습니다. 또한, 표준 변환 점수와 관련된 내용이 추가되었으나, 원본 텍스트의 핵심 정보를 완전히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보(표준 변환 점수, 경쟁률 등)가 원본 텍스트의 주제와 일관되지 않으며, 원본의 결론과는 다른 방향으로 해석하고 있습니다. 따라서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 화학환경공학부에 지원 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용(합격 가능성)에 대한 직접적인 언급이 부족합니다. 그럼에도 불구하고 주제와 관련된 정보가 포함되어 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 정보 간의 연결이 매끄럽지 않아 논리적인 흐름이 다소 부족합니다. 특히, 원본 텍스트의 결론과는 다른 방향으로 전개되어 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 핵심 사실(영어 등급 평균, 수능 4개 영역 등급 평균 등)을 누락하고 있어 정확성에서 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 전달하고 있으나, 원본 텍스트의 맥락과는 다소 차이가 있어 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6850638189866617</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 동의대학교 화학환경공학부 일반학생전형에 지원이 가능한지 판단하기 위해서는 해당 학과의 평균 성적과 표준 편차, 그리고 지원자의 경쟁률 등을 고려해야 합니다.
+주어진 데이터에서 화학환경공학부 관련 정보를 확인해보겠습니다:
+- **2024학년도 모집단위**: 화학공학과, 환경공학과, 응용화학과
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**:
+  - 평균: 364.00
+  - 표준 편차: 12.58
+주어진 성적 3.92는 표준 변환 점수로 보이는데, 이 점수가 화학환경공학부의 평균 점수(364.00)보다 약간 높습니다. 그러나 표준 편차를 고려하면, 3.92는 평균에서 약 1.58표준편차 정도 떨어져 있습니다.
+이러한 상황에서는 경쟁률과 지원자 수 등을 고려해야 합니다. 화학환경공학부의 경우 모집 인원이 적고, 지원자가 많아 경쟁률이 높을 가능성이 큽니다. 따라서 3.92라는 점수로는 충분히 합격할 확률이 높지 않을 수 있습니다.
+결론적으로, 주어진 정보만으로는 정확한 판단이 어렵습니다. 더 자세한 지원 자격과 경쟁률 등을 확인하시거나, 대학 입학처에 문의하시는 것이 좋겠습니다. 필요하다면 [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do) 링크를 참조하여 더 자세한 정보를 얻으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 2024학년도 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트의 데이터와는 상충하는 내용을 포함하고 있습니다. 원본 텍스트에서는 귀하의 성적 4.25가 최초합격자의 평균값보다 높다고 판단했으나, 생성된 응답에서는 4.25가 상대적으로 낮은 점수라고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 4.25가 합격 가능성이 높다고 판단했으나, 생성된 응답은 4.25가 경쟁력 없는 점수라고 주장합니다. 이러한 상충은 일관성을 떨어뜨립니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교 화학환경공학부의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 구체적인 데이터와는 다르게 해석하고 있어 약간의 관련성 부족이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다. 정보가 서로 연결되지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 상충하는 내용을 포함하고 있습니다. 특히, 4.25의 점수에 대한 해석이 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다르게 해석된 부분이 있어 의미의 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본 텍스트와의 불일치로 인해 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.7438008193116245</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.25인데 동의대학교 화학환경공학부에 수능 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 화학환경공학부의 수능 일반학생전형에서의 합격 가능성은 다음과 같이 판단될 수 있습니다.
+- **수능 4개 영역 등급 평균**: 5.10 (2024학년도)
+- **수능 4개 영역 등급 표준 편차**: 0.28 (2024학년도)
+이 데이터를 바탕으로, 수능 4개 영역 등급 평균은 5.10이고, 표준 편차는 0.28입니다. 이는 매우 높은 점수이며, 대부분의 지원자들이 이보다 낮은 점수를 받았습니다.
+당신이 수능 4개 영역 등급이 4.25라면, 평균점수와 비교해보면 상대적으로 낮은 점수입니다. 표준 편차가 작은 것을 고려하면, 이는 매우 경쟁력 없는 점수를 의미합니다.
+따라서, 수능 4개 영역 등급이 4.25인 경우, 화학환경공학부에 합격하기 어려울 것으로 예상됩니다. 하지만 최종 결정은 입시 결과와 지원자의 총합격 점수를 고려하여 내려야 합니다.
+더 자세한 정보나 추가적인 질문이 있으시다면, [https://ipsi. deu. ac. kr/main. do](https://ipsi.deu.ac.kr/main.do)로 접속해보세요.</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수에 대한 평가를 제공하지만, 평균 점수와 표준 편차에 대한 정보가 정확하지 않습니다. 원본 텍스트에서 제공된 평균 점수와 표준 편차와 일치하지 않으며, 잘못된 수치를 사용하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 평균 점수와 표준 편차에 대한 잘못된 해석이 포함되어 있어 일관성이 떨어집니다. 또한, 다른 학과의 경쟁률을 언급하는 부분은 원본 텍스트와 관련이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 관련된 정보를 포함하고 있습니다. 그러나 다른 학과의 경쟁률에 대한 언급은 질문의 맥락과는 다소 벗어난 부분입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족합니다. 특히, 다른 학과의 경쟁률에 대한 언급이 원본 텍스트와의 연결이 약해 일관된 흐름을 방해합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 평균 점수와 표준 편차에 대한 잘못된 수치를 사용하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서의 문제로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있습니다. 그러나 일부 정보는 원본 텍스트와의 관련성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 복잡한 문장 구조가 이해를 어렵게 할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6029171427438845</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 수능 4개 영역 등급의 평균치를 기준으로 보면, 평균이 4.85이고 표준 편차가 0.37인 경우에 비하면 약간 낮은 점수입니다. 그러나 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균치는 409.73이고, 표준 편차가 13.37인 경우에 비하면 상대적으로 낮은 점수입니다.
+하지만 정시 전형의 경쟁률과 모집 인원, 지원 인원 등을 고려해야 합니다. 예를 들어, '상경대학 호텔·컨벤션경영학과'는 1.50의 경쟁률을 보이고 있습니다. 이 경우, 평균 점수가 409.73이니, 4.2정도의 점수로 합격 가능성은 낮지만, 아직 최종 결과를 알 수 없으므로 지원해보는 것이 좋습니다.
+또한, 서류평가와 면접 등 다른 평가 요소들도 중요한 역할을 합니다. 따라서, 지원서 작성 시 전공적합성과 학업역량 등을 잘 보여줄 수 있도록 노력하는 것이 중요합니다.
+결론적으로 4.2라는 점수로는 확실한 합격을 보장받기는 어렵지만, 최선을 다해 지원하면 좋은 결과를 얻을 수 있을 것입니다. 더 자세한 정보는 대학 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. "https://ipsi. deu. ac. kr/main. do" 링크를 통해 확인하실 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct-kowiki</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 문장도 원본의 내용을 잘 보완하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다. 추가된 문장도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트와의 연결이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.9602302923771595</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실
+이 절차를 따르며 면접을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
